--- a/data/hotels_by_city/Dallas/Dallas_shard_93.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_93.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="703">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>ryan l</t>
+  </si>
+  <si>
     <t>05/28/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>I felt obligated to give my fellow travelers some honest insight. My spouse and I travel for a living. We are exposed to all types of communities, and hotels. We stayed in the comfort suite for 2 nights, and this is the second time we have stayed here this year. This property is not "fancy", and it may even strike you as somewhat plain. The truth, however, is it is a hidden gem. The hotel has large rooms, that are clean, at a "value" hotel price. There is a pool and hot tub, along with a workout center, and a very nice breakfast bar that is complimentary, and unlimited. We had great customer service from every employee, and especially from a young lady named "Champaine", who ran the front desk.  There is restaurants (nice ones) and bars right outside the parking area, liquor store, nail salon, and many more retail establishments, right next to the property. Most of all, it is family friendly. Quiet, secure, and ample. I hope this helps, and make sure to ask for "Champaine" at the front desk!More</t>
   </si>
   <si>
+    <t>Rosemarie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r571791316-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>We have always enjoyed staying at Comfort Suites until tonight.  Let me start with the PRO’s: Quiet location, front desk personnel very nice. CON’s: room has not aged well, TV was not working throughput the entire hotel - blamed on carrier, rooms very dark. It appears they are using low wattage bulbs. We are traveling a long way on this vacation. We have been and will be staying at other Comfort Suites. I hope they are better.</t>
   </si>
   <si>
+    <t>Starviagera</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r565936734-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>SherylBoen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r555049207-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>mavericktravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r547078806-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>cynthiakovatch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r535738522-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -279,6 +297,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Pam M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r535374748-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -294,6 +315,9 @@
     <t>Nice desk staff. Excellent hot breakfast with the usual offerings. Hotel is clean and bed comfortable. Hotel is on the interstate, but sits back off the access road so noise from the highway is not a problem.</t>
   </si>
   <si>
+    <t>kenFlorida</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r535176752-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -309,6 +333,9 @@
     <t>I'm always looking for a good deal and my wife looks for cleanliness and safety. This motel was all of that. Very quiet, clean, great breakfast. The motel address is on the Interstate but it sits back from I-35 so it was quiet and we didn't hear traffic.</t>
   </si>
   <si>
+    <t>tommydads</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r533138410-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -327,6 +354,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Judi B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r487664503-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -345,6 +375,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>Jason F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r476247999-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -363,6 +396,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>parshopper</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r469618647-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -399,6 +435,9 @@
     <t>My husband and I took our two young kids to Fort Worth for the weekend for a fun little trip to the zoo and Grapevine Mills Mall. We booked this hotel for Friday night and Saturday night. We unpacked our car and locked it and left it at about 11:30 Friday night. This hotel was comfortable and clean and the staff was super friendly and helpful. The breakfast was good with a wide selection and the pool was nice and clean. However the area it's in is less than savory... we woke up Saturday morning and went to the car to leave for the mall and found that our driver side window had been shattered and the interior of the car had been trashed.  We were two hours from home so there was no way we could stay anywhere in Fort Worth without a window in our car so we had to turn around and come home. However the staff was awesome. They had maintenance bring us a shop vac to clean the glass out of our car. They refunded our Saturday night stay (even though we were on the non refundable policy) since we couldn't stay our second night. I definitely recommend the hotel but if you stay here make sure you park around the front where your car isn't as hidden and watch your belongings. We were parked around the side just out of view of a camera....My husband and I took our two young kids to Fort Worth for the weekend for a fun little trip to the zoo and Grapevine Mills Mall. We booked this hotel for Friday night and Saturday night. We unpacked our car and locked it and left it at about 11:30 Friday night. This hotel was comfortable and clean and the staff was super friendly and helpful. The breakfast was good with a wide selection and the pool was nice and clean. However the area it's in is less than savory... we woke up Saturday morning and went to the car to leave for the mall and found that our driver side window had been shattered and the interior of the car had been trashed.  We were two hours from home so there was no way we could stay anywhere in Fort Worth without a window in our car so we had to turn around and come home. However the staff was awesome. They had maintenance bring us a shop vac to clean the glass out of our car. They refunded our Saturday night stay (even though we were on the non refundable policy) since we couldn't stay our second night. I definitely recommend the hotel but if you stay here make sure you park around the front where your car isn't as hidden and watch your belongings. We were parked around the side just out of view of a camera. Someone else who frequents the area told us that the motel 6 across the way is notorious for hookers and drugs and that's where a lot of the break ins come from and that it's a pretty common occurrence in the area, so be aware.More</t>
   </si>
   <si>
+    <t>Ahmed M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r458771379-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -417,6 +456,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>Janelle M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r453070585-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -435,6 +477,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>Shannonpo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r433806112-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -453,6 +498,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Joe C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r417753827-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -471,6 +519,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Becky H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r417259436-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -489,6 +540,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Sarah H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r414952770-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -504,6 +558,9 @@
     <t xml:space="preserve">My husband and I thoroughly enjoyed our stay at Comfort Suites. Super clean hotel with amazing staff! Breakfast is the normal hotel waffle breakfast, etc, but the waffle iron is in the shape of Texas, so that was different. Stayed 3 days and we don't have anything bad to say about it. Would come back in a heartbeat! </t>
   </si>
   <si>
+    <t>stargatefan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r399990629-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -525,6 +582,9 @@
     <t>We stayed at The Comfort Suites while visiting family in the area. We chose this hotel because it had all of our must-haves: free breakfast, free wi-fi, free parking, indoor pool and hot tub and a microwave and fridge in the room. It also had a washer and dryer on the second floor that one could use for only $1 each. It did not disappoint! It was quiet and comfortable. The only negative thing I would have to say about it is that I did notice that the containers of yogurt offered for breakfast one day were past their expiration date. There are no restaurants nearby (the hotel is in an industrial park-like area), you need to drive up the freeway a few exits but that was never a problem for us because we were out and about every day anyway. It was reasonably priced so a very good value!More</t>
   </si>
   <si>
+    <t>jgumms</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r395312620-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -540,6 +600,9 @@
     <t>Hotel is nice. Staff is great. BUT...Super 8 next door could be a crack house. Very low shower water pressure. Internet, TV, and phones all went down, (same provider), first night I was there and on the third night it seemingly never fully recovered because net still really slow. Business center computer NEVER worked and I needed to print so I will have to go to FedEx office now. TV picture is analog, no HD. King rooms tiny, smallest in the hotel. Bath nice size. Lots of usable workspace. DOES have iPod plug on radio. Nice breakfast is over at 9:00. Indoor pool and hot tub.</t>
   </si>
   <si>
+    <t>tatanka01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r390327343-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -555,6 +618,9 @@
     <t>This was a pretty average place -- about on par with a HI Express.  Clean rooms and the breakfast was good.  Friendly staff.  WiFi very slow.  We slept fine (king bed).  Stayed two nights and on our last morning the elevator was out of order.  We'd stay here again.  I am trying to figure out why I paid $125 a night when TA looks a lot cheaper.</t>
   </si>
   <si>
+    <t>pmhhh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r382040456-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -570,6 +636,9 @@
     <t>This was a pretty good hotel but what is that smell? Good breakfast,  staff, comfortable beds my ONLY complaint was that there was a faint urine odor in our room. Besides that it was great and I would stay again.</t>
   </si>
   <si>
+    <t>Tish L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r368576823-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -588,6 +657,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Betty T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r353140822-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -609,6 +681,9 @@
     <t>My daughters home burnt to the ground everything she owned ,American Red Cross put her and the babies (2month&amp;16month) up at Comfort Suites for mutiple days everyone was so nice and very sympathetic helped in ever way they could.The worker told them that red cross funding was over &amp;we packed and moved her &amp; the babies out &amp; accidently left the part of the babys swing that she lays in ( friends had bought)we called to run back and get it &amp; they refused to give it to us,stated we owed for the last night we stayed.the only "bed "she has and they kept it ,we left room very clean &amp; they kept part of the babys bed?Unbelievable being everything had been lost in the fire then they acted in a way never expected.More</t>
   </si>
   <si>
+    <t>Crystal H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r344161165-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -627,6 +702,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>terrymanningbutts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r342183994-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -645,6 +723,9 @@
     <t>We went to Ft Worth for a funeral.  My mother-in-law, her sister and daughter came from a different direction. I chose this hotel because of its location, as well as the fact that all rooms were suites in case we all wanted to sit and visit.  The people were very friendly, the complimentary breakfast was nice and it has an indoor pool and hot tub.  The only drawback is that their signage on the feeder road is so overpowered by the other hotel that sits in front of it that it is hard to spot.  The hotel sits back off of I-35 which is nice because you don't have the road noise.  I will stay here again next time we are in Ft Worth.  Oh, and our other group had a handicap room because one was on crutches and the room was huge!  She really appreciated the use of the handicap bathroom and shower (a luxury she doesn't have at home).More</t>
   </si>
   <si>
+    <t>HBK2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r327394975-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -666,6 +747,9 @@
     <t>Okay, I'll be honest. Those of who who have read my other reviews will not be surprised to hear me say again that we don't stay in Choice Hotel properties much, and when we do, it's usually just to catch a few hours of sleep on a long road trip or, as was the case with this stay, when nothing else is available. And this hotel typified why. It wasn't horrible. The room and the property were clean enough, so it's not that. But everything just felt a little rundown and tired. Creaky and inefficient heating and cooling, dated finishes in the bathroom, nicks and dings in the furniture. This was especially true in the cramped and tiny fitness center. The elliptical and the weight machine were functional, but pretty well beat up and I didn't get the sense that the housekeeping staff got in there very often. The staff, on the other hand, were as attentive and kind as they could be. Every exchange with them felt as though they were genuinely prepared to do whatever I needed to make my stay more pleasant. Can't say that's always the case—at Choice Hotels or any other chain, for that matter. This place did the trick, and I wouldn't necessarily avoid it, but I wouldn't go out of my way to stay again.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r316177301-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -687,6 +771,9 @@
     <t>My fiancé &amp; I booked this hotel for 2 nights over the weekend. When we arrived Friday night we walked into our room &amp; were greeted with white "stuff" ALL OVER the entry room wall. It looked (I am not over exaggerating) like semen &amp; I was disgusted... When I called the front desk the night shift manager &amp; a maintenance man came to the room, "cleaned" off the wall &amp; told me it was a housekeeping mistake. I told the manager we wanted another room &amp; she told me that she could not put us in another room. I was livid &amp; will never step foot into this hotel ever again.  ThMore</t>
   </si>
   <si>
+    <t>wldflygirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r315089871-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -705,6 +792,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Mrfamilyvacation</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r313052647-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -720,6 +810,9 @@
     <t>The hotel is nice but located in a sketchy area of Fort Worth. I made a prepaid reservation on Expedia that could not be readily located upon arrival. General manager and staff person at hotel told me that "it was an Expedia problem - contact them". With all other hotels in the area booked, my family was in a bind. Only after a hardworking night auditor spent 45 minutes digging through the hotel information system was my reservation found. Thanks to her we had a room for the night.  The attitude of the general manager was shocking - poor customer service.</t>
   </si>
   <si>
+    <t>DeDe L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r310000000-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -738,6 +831,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Spann77t</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r309394266-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -753,6 +849,9 @@
     <t>We had an unexpected family emergency that called us to Fort Worth, when checking hotels I came across Comfort Suites Fort Woth at 6450 S. Fwy, made reservation and upon arrival they were so kind, rooms were Nice &amp; Clean, pool was wonderful, service was excellent, breakfast great and the Prices were WORTH IT &amp; REASONABLE!!! Would diffenately stay again- Thank You for the wonderful service.</t>
   </si>
   <si>
+    <t>Catherine B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r303530293-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -771,6 +870,9 @@
     <t>My daughter and I drove from CT to Tx and stopped here prior to moving her into her apartment. We do usually choose this hotel when visiting TCU simply because we have had great luck here and not so good experiences elsewhere. The hotel was, as always, clean and well furnished. It was a relief to have a clean bathroom after 2 days on the road. The beds were just right and we were grateful to feel safe enough to leave our car full of supplies in the parking lot. The only (very small) issue was that the ac was a bit slow to cool the room . However, once the room was cool, it was sustainable. Will continue to come back here in lieu of risking other venues!More</t>
   </si>
   <si>
+    <t>Phillip H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r297504465-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -786,6 +888,9 @@
     <t>Really nice hotel at a good price. Nice staff, clean room, great amenities. Service at the vallet/front entrance when checking in and out could be better. Also was transferred to concierge twice with no answer or call back. Overall good experience!"Levita" the front desk took care of me.</t>
   </si>
   <si>
+    <t>Stephanie P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r297187741-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -804,6 +909,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Amanda H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r292928339-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -822,6 +930,9 @@
     <t>We arrived at the motel just in time for one of my children to get a nap. I pulled out the sleeper sofa to find a mess of sheets mixed in with someone's lighter, e cigarette and money. Someone had obviously been smoking in our room and what's worse is that house keeping hadn't checked the sofa to change the sheets. The bathroom floor was grimy and dirty with lots of random hairs on it. I wiped it down with a washcloth to take a picture and then got distracted. I did complain to the front desk and they were very helpful to give me new sheets and a blanket to make the bed myself. I'm posting this review because I value the importance of taking pride in ones work and clearly housekeeping, was not trying to make sure our room was ready for us.More</t>
   </si>
   <si>
+    <t>BritKansas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r277553854-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -840,6 +951,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Maggie N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r272853125-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -856,6 +970,9 @@
   </si>
   <si>
     <t>We, Landmark Baptist Church,  had a group of preachers and students from Kenya staying in this hotel. Everyone one spoke of how much they enjoyed their stay at Comfort Suites in Fort Worth, TX. The rooms are always clean and very comfortable and the staff are always ready to help if needed. The atmosphere is pleasant and homey.Lucy and Jennifer were most helpful in setting up these reservations for us and they helped so much with adjustments in the rooms when someone had to leave early or new people showed up late. We appreciate them very much and we will continue to use Comfort Suites at 6450 S. Freeway, Ft. Worth, TX. Thank your Ladies.More</t>
+  </si>
+  <si>
+    <t>Allen M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r261155833-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
@@ -936,6 +1053,9 @@
 It is a 20 min drive into Fort Worth and restaurants like the Red Lobster were about 10mins...We needed a one nighter and after reading some trip advisor reviews decided we would stay. No other room available other than the special needs suite.Not a problem.I do not have any physical disabilities so as I review this I am mindful that someone with special needs may view this.The room is large enough to manoeuvre a wheel chair, however if you have to move the coffee table it is heavy and would be difficult. Towels are in reach , however , spares are higher up.Hanging space is at a accessible level.The shower is easily accessible.The only problem is they did not think about drainage and the floor not sloped appropriately .We had water everywhere puddled.Water almost flowed into the carpet.We had to use all the towels to wipe the floor.As for services the WIFI is slow and you can not print out boarding pass or anything from your email. The service is prohibited. Not very good for a business centre. Had to forward our emails to hotel and get them to print out.Room was clean but a little dated in decor.Breakfast was ordinary compared to other cheaper hotels we have stayed at.The carpets in halls dirty and there was a smell. It was also smelly in the lift. It is a 20 min drive into Fort Worth and restaurants like the Red Lobster were about 10mins drive. We paid $114USD for the night, with tax, without $99.This is more a $75 a night before tax.Overall I would probably not stay again unless got a better rate and were to tired to care.More</t>
   </si>
   <si>
+    <t>Kathryn C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r248371188-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -954,6 +1074,9 @@
     <t>This was one of the cleanest hotels I've been in. Even the carpet didn't give me the "icky" feel i usually feel in hotels (even the 5 star ones). The staff was so friendly. The pool area was super clean and gave you a feeling of being at a resort. It was the warmest pool I've ever been in (an extra perk in the winter time). Hot tub was nice too, but since the heated pool actually felt heated I didn't really last long in the hot tub. There isn't any restaurants in the area to walk to, but the front desk has a variety of menues to restaurants that will deliver to the property if you don't feel like driving anywhere to eat. Would stay here again and will definately recommend to others.More</t>
   </si>
   <si>
+    <t>Merry K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r243514591-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -975,6 +1098,9 @@
     <t>Sometimes you need to travel to another big city; away from home to visit relatives. You want comfort, sparkling cleanliness, and perhaps some neat perks! Comfort Suites in Ft. Worth, TX. delivers all of the above with excellency! Rooms are artistically modern with serious sleep bedding, big flat tv screen;refrigerator, and sleek, useful bathroom appointments. The breakfast cafe beckons you to hot and cold breakfast yums-free for your enjoyment. Need to get the kinks out of your body from travel? Then set aside time to use their well stocked exercise room-open all day and into the night. Comfort Suites is a quick access from airport to highway to hotel.The staff was especially attentive and friendly!More</t>
   </si>
   <si>
+    <t>Bonnie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r242584578-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -990,6 +1116,9 @@
     <t>We had an excellent stay at this hotel when we were in Ft. Worth in November for the Cathedral Family Reunion at the MacGorman Peformaing Arts Center.  It was a short drive and we had a very nice quiet room with excellent service.  We could not have asked for a better place to stay.</t>
   </si>
   <si>
+    <t>Jean A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r240754393-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1005,6 +1134,9 @@
     <t>Our room was very nice, the staff was friendly. It is a quiet area, but near I-35W. It was a short drive to the MacGorman Performing Arts Center where we were attending the 2014 Texas Gospel Music Festival.</t>
   </si>
   <si>
+    <t>OwenNashville</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r239870277-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1023,6 +1155,9 @@
     <t>Large, comfortable room.  Friendly staff, clean room, acceptable location, and good price. Noisy heater.  You would think that by now a quiet room AC/heater would have been invented.  The door did not latch without several pulls.  Found it unlatched after housekeeping had been there.  We spent 3 hours listening to the ear-splitting fire alarm (2:30 -5:30 a.m.).  It seems nobody knew how to turn it off.  However, I would bet that this will not be an issue in the future.  The staff helped as best they could and compensated for the failure to provide a night's rest.  Access to downtown is easy via I35W.  Freeway noise is not an issue.  Even given the above issues, I would stay at this facility again.More</t>
   </si>
   <si>
+    <t>Robert H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r234512631-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1044,6 +1179,9 @@
     <t>Was very impressed with how this place was managed.  Whatever extras we needed, the staff accommodated us.  Room was comfortable.  Facility could use a refresh.  During a thunderstorm,rain came through the grout on the window.   Management apologized even though we didn't view it as a problem they should have prevented.  Convenient location off the freeway and by a major shopping center.  Roads to and from the hotel off the freeway can seem a little complicated.  But you can see the hotel and find your way.  Location is perfect for those traveling through.  If Fort Worth is your destination, its a drive to most of the attractions. Rates were good for the area.  Owner/management are a real plus.More</t>
   </si>
   <si>
+    <t>SoonerSteve</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r232707137-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1062,6 +1200,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Jay A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r231779806-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1107,6 +1248,9 @@
     <t>My husband, daughter, and I stayed at this hotel for college orientation. It was convenient, clean, and had a very nice breakfast. The rooms were quiet and large enough to easily accommodate all three of us (we are 5'9"-6'5") and our multitude of bags as we were leaving from Dallas on a 2w vacation abroad. My very picky husband liked it enough that he made certain I booked it again when he went to drop her off this fall.</t>
   </si>
   <si>
+    <t>Jay H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r224943719-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1125,6 +1269,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>LucyandClive</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r220423842-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1143,6 +1290,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>BigDogAz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r215026654-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1161,6 +1311,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>victoriabmw27</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r214413625-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1176,6 +1329,9 @@
     <t xml:space="preserve">Stayed at this hotel for an evening to attend a wedding in Fort Worth.  The hotel looked to be fairly new and the room on the 3rd floor which was one of their suites was very spacious.  Overall it was a nice hotel.  The room was clean and the hotel staff was friendly as well. </t>
   </si>
   <si>
+    <t>chelset</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r213598005-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1194,6 +1350,9 @@
     <t>We stayed at this Comfort Suites on our way to San Antonio and after going to the Ft Worth Zoo. It is located right off the interstate and perfect if you are traveling and don't want to get off the beaten path. It was nice and clean, the staff was friendly, breakfast was good, beds were comfortable, and the pool area was clean. Definitely one of the nicer Comfort Suites I've stayed in. Top notch!   That said, the location left a lot to be desired. It is off the highway far enough that you don't get road noise, but there isn't anything around. We used TripAdvisor (of course!) to look for a decent restaurant and we had to fight traffic to get to anywhere worthwhile. We were tired from the zoo and just wanted a decent meal close-by. It wasn't a big deal to drive and we didn't have to go too far or anything crazy, but this motel is not off a main exit with gas stations and restaurants in the immediate area.More</t>
   </si>
   <si>
+    <t>bingobiz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r211025964-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1213,6 +1372,9 @@
   </si>
   <si>
     <t>For anyone traveling into the Fort Worth, Texas geography, this Comfort Suites hotel is a stand- out!  It's central to everything "Fort Worth," being right off a major artery and minutes from both downtown and the 'burbs.  It's affordably priced (we brought in over 30 nights worth of business with a company team working in the area), but there's more. This Comfort Suites runs a great little breakfast; they also have a Happy Hour (not that common anymore!) and their conference room facilities are perfect. But most importantly, the management and staff are very focused on customer satisfaction, and a total pleasure to work with. And the rooms (my experience) were immaculate, which means kudos to the service staff!Will stay here again anytime I'm in the Fort Worth area.  Way to go, Comfort Suites Fort Worth!More</t>
+  </si>
+  <si>
+    <t>GrammaRia</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r210084557-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
@@ -1242,6 +1404,9 @@
 Both mornings we had the "Do Not Disturb" sign out (check out is noon) and both mornings housekeeping knocked on the door at 10am.  The 2nd morning they knocked twice - once at 10 and again at 11.  What part of "do not disturb"...Even using GPS, we drove right by it and had to go around the block - it is tucked back from the road between 2 other hotels.  Check-in was smooth.  Alexis, at the front desk, was very nice.  Room was nice and clean.  All the usual amenities including makeup remover towelettes.  Yay!!  Dumb to get so excited about something so minor.  Hand rail in tub but was located awkwardly.  If taking a bath it would be very hard to use.  Would have like to have had night stand on both sides of the bed but there were plenty of outlets, for a change.  Breakfast was ok.  We got in the day before Mother's Day so were surprised that hours were same as weekday - 6 to 9 am.  No extra time for Sunday or special hours for Mother's Day.  At 8:15 am people were lined up.  Everyone slept in and tried to eat at the last minute.  Also, things were laid out confusingly.  Hard to find what you wanted.Otherwise place was ok.  We ordered pizza in the room and Gloria was nice and unlocked the breakfast area so we could get plastic plates and napkins.Both mornings we had the "Do Not Disturb" sign out (check out is noon) and both mornings housekeeping knocked on the door at 10am.  The 2nd morning they knocked twice - once at 10 and again at 11.  What part of "do not disturb" do they not understand?  I realize people check out and leave their signs hanging on the door, but the 1st morning we weren't checking out, and the 2nd, we were waiting till the last minute as we didn't have to go far.  Besides, check out was noon!More</t>
   </si>
   <si>
+    <t>Justin H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r205611197-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1260,6 +1425,9 @@
     <t>At the end of day after I had checked out I noticed my tablet was missing and that I had left it in the room. I called and was told it had not been turned in but was offered to go recheck the room. Tablet was not found and so I asked to speak with manager. Manager said would check video camera for any suspicious activity and call back next day. Little to be known manager would not be in until next day afternoon (I assumed this would be a top priority and I would contacted in the morning) still not found but was told only myself and staff showed to have opened my room door. I gave my opinion of how to fix this situation and a soft snicker was heard. I asked why she would laugh at my request since it was obvious my tablet was taken and myself and staff were only ones that had opened my room door. I asked for management company phone number and was told that an investigation would be done the very next morning and a phone call by the afternoon. To no avail it has been 3 weeks with no return call back. During this time I had tried reaching the manager and was contacted two days later. I asked for the information to the owner, manager said she is not allowed to give out (Wow really to not have accessibility...At the end of day after I had checked out I noticed my tablet was missing and that I had left it in the room. I called and was told it had not been turned in but was offered to go recheck the room. Tablet was not found and so I asked to speak with manager. Manager said would check video camera for any suspicious activity and call back next day. Little to be known manager would not be in until next day afternoon (I assumed this would be a top priority and I would contacted in the morning) still not found but was told only myself and staff showed to have opened my room door. I gave my opinion of how to fix this situation and a soft snicker was heard. I asked why she would laugh at my request since it was obvious my tablet was taken and myself and staff were only ones that had opened my room door. I asked for management company phone number and was told that an investigation would be done the very next morning and a phone call by the afternoon. To no avail it has been 3 weeks with no return call back. During this time I had tried reaching the manager and was contacted two days later. I asked for the information to the owner, manager said she is not allowed to give out (Wow really to not have accessibility to owner for a serious issue with this business) I asked manager to have owner call me back by the end of the week. Guess what exactly no call back. This issue has resulted in his business missing out on right out 3,000 in a year because I average a 3 day stay a month every year. This just may also cut Choice Hotels business as well completely. I travel 42 weeks a year. I am a Diamond with Hilton and wanted to reduce my expenses so I Choice Hotels.By the way I did do an initial call to Choice Customer service and was told they will not help so if this not good customer service then I have no idea.More</t>
   </si>
   <si>
+    <t>Lollie777</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r203284390-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1275,6 +1443,9 @@
     <t>We stayed in this hotel for convenience on a school trip. I was pleasantly surprised by the quality for the price. Our room was large, including a couch and frig! The indoor pool is a little small, but not unlike many indoor pools in this area. The free breakfast was nice as well. Would stay again! Very close to TCU, just hop on 35 and there in ten minutes. The neighborhood behind the facility is a little sketchy, but the fenced in area around the hotel made us feel safe and the quality of the hotel was great!</t>
   </si>
   <si>
+    <t>D T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r199636652-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1293,6 +1464,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Noreen S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r198100603-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1311,6 +1485,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>veritasmama</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r197884800-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1326,6 +1503,9 @@
     <t>Our family was very pleased with this Comfort Suites.  It is such a dependable chain and this is a great one.  The rooms were quiet, comfortable and clean.  The staff was friendly and helpful.  The only disappointment was how very cold the indoor pool was.</t>
   </si>
   <si>
+    <t>sassycgirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r196284800-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1341,6 +1521,9 @@
     <t>After checking into a Baymont Inn in Arlington only to find the rooms were so nasty we would not stay there we moved to Comfort Suites in Fort Worth. The front desk staff was very nice and helped get us around town since there was construction. The rooms were clean and nice. The beds were comfy and the breakfast was what you would expect to find at any continental. The do have a nice little snack area in the lobby where you can purchase items which was nice. VERY nice place to stay!!!!</t>
   </si>
   <si>
+    <t>KimboTwo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r193435153-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1359,6 +1542,9 @@
     <t>Getting there: Via Altamesa exit, proceed south on one-way southbound access road one block, turn right at sign, Comfort Suites is to the right, and behind other motel at same entrance driveway.  Being 120 yards off Interstate makes for much less noise.  Staff was pleasant, helpful during our (wife plus me) 3-night stay.  Room was very clean, AC/Heat was quiet, bed comfortable.  Free breakfast (6am-9am) included choice of yogurt, cereal, fresh waffles (You cook 'em), scrambled eggs, sausage, bagels, muffins, milk, juice, coffee.  All good.  TV and lounge chairs adjacent to breakfast tables. Indoor pool (small) was very cool and clean. Hot tub (4 persons max) was also clean, 104 degrees F, nice.  Towels provided for pool area use.  No surprises, just a restful stay, at a well-kept property. Used AARP discount. Waffle House 2 blocks north, 1 Mile south to Whataburger, Sonic. 4 Miles south to MANY chain restaurants. I will return.More</t>
   </si>
   <si>
+    <t>sorryincarrollton</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r193161330-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1377,6 +1563,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>judie z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r189518443-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1392,6 +1581,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>FredrickTX976</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r187410921-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1410,6 +1602,9 @@
     <t>I booked several rooms here at this location because we were in town to bury my aunt.  This was the closet hotel to where we needed to be.  We all arrived at the same time, and the young lady at the desk was very helpful and friendly. My aunt ended up booking a second room that night as well so we had a total of 5 rooms.  Seeing the area and the other properties within it's vicinity, I would have expected noise  especially from the highway, but there was no noise, so my night was a very peaceful one.  I noticed that there was only one way in and one way out of the property and now I know why and that is a good idea, considering some of the people that I seen walking around other parking lots.  The breakfast was great!!!! The breakfast attendant made sure everything was fully stocked, and she too was very friendly.  Although our stay was for a funeral, we will book again at this location when we are in the area and need a place to lay our heads.  I would like to give my Kudos to the management team and staff.  Thank you for making a trip that was filled with so much sorrow and hurt into a happy and pleasant trip.  From my family to yours, We love you and We Thank you!!More</t>
   </si>
   <si>
+    <t>kazza800</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r186483714-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1425,6 +1620,9 @@
     <t>My husband and I stayed here as part of our road trip holiday. I called and made a booking 3 hours before we arrived late at night, and the staff were so helpful. They provided us with a beautiful room &amp; really made us feel special by taking the time to always say hello and make a conversation (unlike other hotels we came across on our trip). The place itself was really nice, quite new and we had no issues whatsoever.Really recommend staying here if you get the chance to stay at Forth Worth- a lovely town too!</t>
   </si>
   <si>
+    <t>TexanXXL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r183588828-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1443,6 +1641,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>KristenMA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r182158870-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1458,6 +1659,9 @@
     <t>I am a frequent guest at this hotel.  Staff are very helpful and pleasant.  There is excellent management at this hotel.  Rooms are clean and spacious.  Breakfast options are great also.  I have stayed at several hotels in this chain and this is definitely one of the nicest.  I would recommend this hotel!</t>
   </si>
   <si>
+    <t>maggiemk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r181806116-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1473,6 +1677,9 @@
     <t>I stayed three nights at this property while working in the area.  Jennifer Gonzales and her colleagues were SO helpful.  My room was quite large, at the back side, and the windows opened.  There is no restaurant in the hotel but local places will deliver.  Extremely convenient.</t>
   </si>
   <si>
+    <t>Stan W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r163964291-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1491,6 +1698,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Mjvrev01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r163320491-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1506,6 +1716,9 @@
     <t>We were traveling from Colorado, booked this room in the morning. We needed a suite with 2 beds. When we arrived late that evening to check in, we were informed that there was not a room available for our needs. There was one room, but it was dirty. This was very disappointing &amp; inconvenient. We booked several hotels at the last minute on this vacation, this is the only one we had an issue with. Will definitely think twice before booking with Choice Hotels.</t>
   </si>
   <si>
+    <t>Andrea G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r161277036-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1524,6 +1737,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>JusticeAK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r161102775-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1539,6 +1755,9 @@
     <t>I was in Fort Worth for work and decided to stay at this comfort suites because is was a very convenient location.  Zero complaints, very friendly staff, always fresh coffee available and the breakfast is pretty good.  Rooms are very well maintained and clean.  For a hotel under $100 a night it can't be beat.  A word of advice, don't go to the oil well steakhouse right up the street, its a real dive.  Even the waffle house next door is better.</t>
   </si>
   <si>
+    <t>Amy L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r158332661-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1560,6 +1779,9 @@
     <t>We travel a lot and you never know what you're going to find when you get to your hotel after a long day of driving or flying. At this Comfort Suites the rooms are a good size and clean. They are in the process of updating the rooms so the carpet is new which is nice! The beds are also very comfortable and feel like they've been replaced recently. My Mom is in a wheelchair and the handicap room was definitely one of the top 5 handicap hotel rooms we've stayed in. The staff is very friendly and helpful! They were quick to try to accommodate any requests we had for extra pillows/towels, etc. The fridge in our mini-kitchen was broken and they promptly replaced it. We would definitely recommend the hotel to friends and would stay here again!More</t>
   </si>
   <si>
+    <t>VSARANTE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r156706169-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1578,6 +1800,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Kavin1301</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r154533018-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1593,6 +1818,9 @@
     <t>My wife and daughter spent 2 nights here while she attend a photography conference at the college.  Hotel was very clean, rooms were comfortable and the property is newer which makes it nice.  Close to the mall and restaurants nearby.  This part of Ft. Worth is old and kind of run down.</t>
   </si>
   <si>
+    <t>Gaelharp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r154473035-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1611,6 +1839,9 @@
     <t>This hotel is located just off of I-35, with a Super 8 and Motel 6 in the immediate area. Not a great part of town, or located near anything of interest, but it's a good base for exploring the Metroplex if you don't mind driving a bit to get back to the hotel. Comfort Suites has a better location than the other two adjoining hotels, which are much closer to the interstate.We appreciated the Monday - Thursday happy hour, with complimentary snacks and sodas (and beer or wine for those of age.) The swimming pool was small and the water somewhat chilly, but the 7-year-old enjoyed swimming there in the evening with other kids.Breakfast was better than many value hotels. There were hot selections (sausage, eggs), a waffle-maker, plus yogurt, mini-muffins, fruit, cereal, and both "bold" and "mild" brewed coffee selections, besides hot water for tea and orange juice. Breakfast and happy hour are offered in a pleasant eating area.The 2-double-bed suites are roomy and have a refrigerator and microwave. It would be nice if the toilet/shower/bath part of the bathroom was separate from the sink/mirror part, but alas. There are a few fast-food-type restaurants nearby (Whataburger, Sonic), plus Joe's Italian has good and cheap pasta, pizza, and sandwiches. The Subway in the same small strip mall offers an after-5 dinner special for those looking to save money on eating out.More</t>
   </si>
   <si>
+    <t>htowntravelers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r151656805-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1629,6 +1860,9 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>Mel4osu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r150387754-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1683,6 +1917,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>EDDOC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r146400231-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1701,6 +1938,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>janay w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r144700566-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1716,6 +1956,9 @@
     <t>the employees were awsome. we had been bumped from our original hotel. the clerk at the hotel called and comfort suites had a room perfect for us. everyone was so great. we will stay at comfort suites anytime we are in the metroplex</t>
   </si>
   <si>
+    <t>svh50</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r141646073-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1731,6 +1974,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>Travel-to-you-Drop</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r136491550-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1749,6 +1995,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>mrsmeber99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r129058696-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1767,6 +2016,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>Pidge101</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r126583913-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1782,6 +2034,9 @@
     <t>Rooms were very clean, free breakfast was delicious, and the people were friendly.  Value was the best part. Two nights with free breakfasts and an indoor pool for less than 200.  Will stay here again.</t>
   </si>
   <si>
+    <t>Keith T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r126539998-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1800,6 +2055,9 @@
     <t>I spent one night in this hotel recently as I traveled south on I-35. It's new and very clean. The staff are friendly and helpful. The rooms are relatively large and very comfortable, and the beds are very good. This is a nicer than usual Comfort Suites Hotel. Breakfast was typical for this hotel with hot and cold items including sausage and scrambled eggs and cook it yourself waffles. There was a microwave and frig in the room. The price with AAA was great. My only complaint - the bed pillows were square and a little thicker than I prefer - very minor. I would definitely stay again when in the area. Recommended.More</t>
   </si>
   <si>
+    <t>jesstraveling2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r125670412-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1821,6 +2079,9 @@
     <t>I stayed at this hotel shortly after it opened about a year and a half ago.  The stay was very nice, so much so that when I am in Fort Worth for my doctor's visits this is the only hotel I stay in.  The hotel and the rooms are very clean, and the staff is quite nice; making you feel more than welcomed.  The "full" hot breakfast is really satisfying.  The hotel is set back a little from the freeway.  I suggest driving slowly on the freeway's access road and turning into the first entrance after the church on the right.  If you drive past the Super 8 hotel, you went too far.  Continue up the access road to the stop light, make a U-turn under the freeway and come back again.  Good luck.  I do not think you will regret staying there:  I have not!More</t>
   </si>
   <si>
+    <t>Jill P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r123872437-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1839,6 +2100,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>Jim K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r121949810-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1857,6 +2121,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>Kat K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r119274425-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1872,6 +2139,9 @@
     <t>Courteous staff. Upgraded rooms. Hotel is behind others on a hill providing privacy and quiet.</t>
   </si>
   <si>
+    <t>Jackie T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r100893216-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1881,10 +2151,16 @@
     <t>March 20, 2011</t>
   </si>
   <si>
+    <t>Frank S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r92221359-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>92221359</t>
+  </si>
+  <si>
+    <t>hnewburn</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r59020741-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
@@ -2395,43 +2671,47 @@
       <c r="A2" t="n">
         <v>60250</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>125333</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2449,41 +2729,45 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>60250</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>125334</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
@@ -2502,50 +2786,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>60250</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>75304</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -2565,50 +2853,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>60250</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>125335</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
         <v>69</v>
-      </c>
-      <c r="K5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" t="s">
-        <v>66</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2622,50 +2914,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>60250</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>125336</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2685,50 +2981,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>60250</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>125337</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2742,50 +3042,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>60250</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>5426</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>91</v>
       </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>85</v>
-      </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -2805,50 +3109,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>60250</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>125338</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -2866,50 +3174,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>60250</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>125339</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -2927,50 +3239,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>60250</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>125340</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2990,50 +3306,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>60250</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>44373</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3047,50 +3367,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>60250</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>125341</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
         <v>118</v>
       </c>
-      <c r="L13" t="s">
-        <v>119</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>108</v>
-      </c>
       <c r="O13" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3108,7 +3432,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
@@ -3121,37 +3445,37 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="J14" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K14" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O14" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -3169,50 +3493,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>60250</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>125342</v>
+      </c>
+      <c r="C15" t="s">
+        <v>139</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J15" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O15" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3226,50 +3554,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>60250</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>125343</v>
+      </c>
+      <c r="C16" t="s">
+        <v>146</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="J16" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K16" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L16" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3287,50 +3619,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>60250</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>125344</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="J17" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="K17" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="O17" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3344,50 +3680,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>60250</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>26246</v>
+      </c>
+      <c r="C18" t="s">
+        <v>160</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="J18" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="K18" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="L18" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="O18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -3407,50 +3747,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>60250</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>4922</v>
+      </c>
+      <c r="C19" t="s">
+        <v>167</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="J19" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="K19" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="L19" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="O19" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3464,50 +3808,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>60250</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>2411</v>
+      </c>
+      <c r="C20" t="s">
+        <v>174</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="J20" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="O20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3521,50 +3869,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>60250</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>125345</v>
+      </c>
+      <c r="C21" t="s">
+        <v>180</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="J21" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="K21" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="O21" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3584,50 +3936,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>60250</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>125346</v>
+      </c>
+      <c r="C22" t="s">
+        <v>188</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="J22" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="K22" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="L22" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -3645,50 +4001,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>60250</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>125347</v>
+      </c>
+      <c r="C23" t="s">
+        <v>194</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="J23" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="K23" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="L23" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="O23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3706,50 +4066,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>60250</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>125348</v>
+      </c>
+      <c r="C24" t="s">
+        <v>200</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="J24" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="K24" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="L24" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="O24" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3763,50 +4127,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>60250</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>65302</v>
+      </c>
+      <c r="C25" t="s">
+        <v>206</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="J25" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="K25" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="L25" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3820,50 +4188,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>60250</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>20312</v>
+      </c>
+      <c r="C26" t="s">
+        <v>213</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="J26" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="K26" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="O26" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3883,50 +4255,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>60250</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>116868</v>
+      </c>
+      <c r="C27" t="s">
+        <v>221</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="J27" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="K27" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="O27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3940,50 +4316,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>60250</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>125349</v>
+      </c>
+      <c r="C28" t="s">
+        <v>228</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="J28" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="K28" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="L28" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="O28" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4001,50 +4381,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>60250</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>125350</v>
+      </c>
+      <c r="C29" t="s">
+        <v>235</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="J29" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="K29" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="L29" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="O29" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -4062,50 +4446,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>60250</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>243</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="J30" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="K30" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="L30" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="O30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4119,50 +4507,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>60250</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>125351</v>
+      </c>
+      <c r="C31" t="s">
+        <v>251</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="J31" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="K31" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="L31" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4182,50 +4574,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>60250</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>125352</v>
+      </c>
+      <c r="C32" t="s">
+        <v>258</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="J32" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="K32" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="L32" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="O32" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4243,50 +4639,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>60250</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>125353</v>
+      </c>
+      <c r="C33" t="s">
+        <v>264</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="J33" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="K33" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="O33" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4300,50 +4700,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>60250</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>125354</v>
+      </c>
+      <c r="C34" t="s">
+        <v>271</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="J34" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="K34" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="L34" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="O34" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4357,50 +4761,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>60250</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>2171</v>
+      </c>
+      <c r="C35" t="s">
+        <v>277</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="J35" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="K35" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="L35" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="O35" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4414,50 +4822,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>60250</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>3771</v>
+      </c>
+      <c r="C36" t="s">
+        <v>284</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="J36" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="K36" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="L36" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -4475,50 +4887,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>60250</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>733</v>
+      </c>
+      <c r="C37" t="s">
+        <v>290</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="J37" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="K37" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="L37" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="O37" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4538,50 +4954,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>60250</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>162</v>
+      </c>
+      <c r="C38" t="s">
+        <v>297</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="J38" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="K38" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="L38" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="O38" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4595,50 +5015,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>60250</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>125355</v>
+      </c>
+      <c r="C39" t="s">
+        <v>304</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="J39" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="K39" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="L39" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="O39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4656,50 +5080,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>60250</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>80944</v>
+      </c>
+      <c r="C40" t="s">
+        <v>311</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="J40" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="K40" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4719,50 +5147,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>60250</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>32780</v>
+      </c>
+      <c r="C41" t="s">
+        <v>318</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="J41" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="K41" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="L41" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="O41" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -4782,50 +5214,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>60250</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>243</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="J42" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="K42" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="L42" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="O42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4839,41 +5275,45 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>60250</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>17644</v>
+      </c>
+      <c r="C43" t="s">
+        <v>333</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="J43" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="K43" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="L43" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
@@ -4902,50 +5342,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>60250</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>125356</v>
+      </c>
+      <c r="C44" t="s">
+        <v>340</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="J44" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="K44" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="L44" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="O44" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -4965,50 +5409,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>60250</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>17828</v>
+      </c>
+      <c r="C45" t="s">
+        <v>348</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="J45" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="K45" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="L45" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="O45" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5026,50 +5474,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>60250</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>97858</v>
+      </c>
+      <c r="C46" t="s">
+        <v>354</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="J46" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="K46" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="L46" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="O46" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5089,50 +5541,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>60250</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>125357</v>
+      </c>
+      <c r="C47" t="s">
+        <v>360</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="J47" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="K47" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="L47" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="O47" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5156,50 +5612,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>60250</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>8062</v>
+      </c>
+      <c r="C48" t="s">
+        <v>367</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="J48" t="s">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="K48" t="s">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="L48" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="O48" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5219,50 +5679,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>60250</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>84414</v>
+      </c>
+      <c r="C49" t="s">
+        <v>375</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="J49" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="K49" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="L49" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="O49" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5276,50 +5740,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>60250</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>96051</v>
+      </c>
+      <c r="C50" t="s">
+        <v>382</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="J50" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="K50" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="L50" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
@@ -5337,7 +5805,7 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
     </row>
     <row r="51">
@@ -5350,37 +5818,37 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="J51" t="s">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="K51" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="L51" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="O51" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5400,41 +5868,45 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>60250</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>2171</v>
+      </c>
+      <c r="C52" t="s">
+        <v>277</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>348</v>
+        <v>395</v>
       </c>
       <c r="J52" t="s">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="K52" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="L52" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
@@ -5453,50 +5925,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>60250</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>412</v>
+      </c>
+      <c r="C53" t="s">
+        <v>398</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>352</v>
+        <v>400</v>
       </c>
       <c r="J53" t="s">
-        <v>353</v>
+        <v>401</v>
       </c>
       <c r="K53" t="s">
-        <v>354</v>
+        <v>402</v>
       </c>
       <c r="L53" t="s">
-        <v>355</v>
+        <v>403</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>356</v>
+        <v>404</v>
       </c>
       <c r="O53" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5516,50 +5992,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>355</v>
+        <v>403</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>60250</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>125358</v>
+      </c>
+      <c r="C54" t="s">
+        <v>405</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>358</v>
+        <v>407</v>
       </c>
       <c r="J54" t="s">
-        <v>359</v>
+        <v>408</v>
       </c>
       <c r="K54" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="L54" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>362</v>
+        <v>411</v>
       </c>
       <c r="O54" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5579,50 +6059,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>60250</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>125359</v>
+      </c>
+      <c r="C55" t="s">
+        <v>412</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="J55" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="K55" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="L55" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>368</v>
+        <v>418</v>
       </c>
       <c r="O55" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5636,41 +6120,45 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>60250</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>125360</v>
+      </c>
+      <c r="C56" t="s">
+        <v>419</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>369</v>
+        <v>420</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="J56" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="K56" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="L56" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
@@ -5689,41 +6177,45 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>60250</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>125361</v>
+      </c>
+      <c r="C57" t="s">
+        <v>425</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>375</v>
+        <v>427</v>
       </c>
       <c r="J57" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="K57" t="s">
-        <v>377</v>
+        <v>429</v>
       </c>
       <c r="L57" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
@@ -5742,50 +6234,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>60250</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>125362</v>
+      </c>
+      <c r="C58" t="s">
+        <v>432</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>380</v>
+        <v>433</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
       <c r="J58" t="s">
-        <v>382</v>
+        <v>435</v>
       </c>
       <c r="K58" t="s">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="L58" t="s">
-        <v>384</v>
+        <v>437</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>385</v>
+        <v>438</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5809,50 +6305,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>386</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>60250</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>125363</v>
+      </c>
+      <c r="C59" t="s">
+        <v>440</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>388</v>
+        <v>442</v>
       </c>
       <c r="J59" t="s">
-        <v>389</v>
+        <v>443</v>
       </c>
       <c r="K59" t="s">
-        <v>390</v>
+        <v>444</v>
       </c>
       <c r="L59" t="s">
-        <v>391</v>
+        <v>445</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>392</v>
+        <v>446</v>
       </c>
       <c r="O59" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -5876,50 +6376,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>393</v>
+        <v>447</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>60250</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>2745</v>
+      </c>
+      <c r="C60" t="s">
+        <v>448</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>395</v>
+        <v>450</v>
       </c>
       <c r="J60" t="s">
-        <v>396</v>
+        <v>451</v>
       </c>
       <c r="K60" t="s">
-        <v>397</v>
+        <v>452</v>
       </c>
       <c r="L60" t="s">
-        <v>398</v>
+        <v>453</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>362</v>
+        <v>411</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>2</v>
@@ -5943,50 +6447,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>399</v>
+        <v>454</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>60250</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>125364</v>
+      </c>
+      <c r="C61" t="s">
+        <v>455</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>401</v>
+        <v>457</v>
       </c>
       <c r="J61" t="s">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="K61" t="s">
-        <v>403</v>
+        <v>459</v>
       </c>
       <c r="L61" t="s">
-        <v>404</v>
+        <v>460</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>362</v>
+        <v>411</v>
       </c>
       <c r="O61" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6000,50 +6508,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>404</v>
+        <v>460</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>60250</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>25590</v>
+      </c>
+      <c r="C62" t="s">
+        <v>461</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="J62" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="K62" t="s">
-        <v>408</v>
+        <v>465</v>
       </c>
       <c r="L62" t="s">
-        <v>409</v>
+        <v>466</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>410</v>
+        <v>467</v>
       </c>
       <c r="O62" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6067,50 +6579,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>409</v>
+        <v>466</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>60250</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>125365</v>
+      </c>
+      <c r="C63" t="s">
+        <v>468</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>411</v>
+        <v>469</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>412</v>
+        <v>470</v>
       </c>
       <c r="J63" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
       <c r="K63" t="s">
-        <v>414</v>
+        <v>472</v>
       </c>
       <c r="L63" t="s">
-        <v>415</v>
+        <v>473</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>416</v>
+        <v>474</v>
       </c>
       <c r="O63" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6134,41 +6650,45 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>415</v>
+        <v>473</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>60250</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>125366</v>
+      </c>
+      <c r="C64" t="s">
+        <v>475</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>417</v>
+        <v>476</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>418</v>
+        <v>477</v>
       </c>
       <c r="J64" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
       <c r="K64" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="L64" t="s">
-        <v>421</v>
+        <v>480</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
@@ -6197,50 +6717,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>421</v>
+        <v>480</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>60250</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>125367</v>
+      </c>
+      <c r="C65" t="s">
+        <v>481</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>422</v>
+        <v>482</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>423</v>
+        <v>483</v>
       </c>
       <c r="J65" t="s">
-        <v>424</v>
+        <v>484</v>
       </c>
       <c r="K65" t="s">
-        <v>425</v>
+        <v>485</v>
       </c>
       <c r="L65" t="s">
-        <v>426</v>
+        <v>486</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>410</v>
+        <v>467</v>
       </c>
       <c r="O65" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6264,50 +6788,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>426</v>
+        <v>486</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>60250</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>125368</v>
+      </c>
+      <c r="C66" t="s">
+        <v>487</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>427</v>
+        <v>488</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>428</v>
+        <v>489</v>
       </c>
       <c r="J66" t="s">
-        <v>429</v>
+        <v>490</v>
       </c>
       <c r="K66" t="s">
-        <v>430</v>
+        <v>491</v>
       </c>
       <c r="L66" t="s">
-        <v>431</v>
+        <v>492</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>416</v>
+        <v>474</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6331,50 +6859,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>432</v>
+        <v>493</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>60250</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>125369</v>
+      </c>
+      <c r="C67" t="s">
+        <v>494</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>433</v>
+        <v>495</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>434</v>
+        <v>496</v>
       </c>
       <c r="J67" t="s">
-        <v>435</v>
+        <v>497</v>
       </c>
       <c r="K67" t="s">
-        <v>436</v>
+        <v>498</v>
       </c>
       <c r="L67" t="s">
-        <v>437</v>
+        <v>499</v>
       </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>1</v>
@@ -6398,50 +6930,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>437</v>
+        <v>499</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>60250</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>125370</v>
+      </c>
+      <c r="C68" t="s">
+        <v>501</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>439</v>
+        <v>502</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>440</v>
+        <v>503</v>
       </c>
       <c r="J68" t="s">
-        <v>441</v>
+        <v>504</v>
       </c>
       <c r="K68" t="s">
-        <v>414</v>
+        <v>472</v>
       </c>
       <c r="L68" t="s">
-        <v>442</v>
+        <v>505</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>443</v>
+        <v>506</v>
       </c>
       <c r="O68" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6465,50 +7001,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>442</v>
+        <v>505</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>60250</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>125371</v>
+      </c>
+      <c r="C69" t="s">
+        <v>507</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>444</v>
+        <v>508</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>445</v>
+        <v>509</v>
       </c>
       <c r="J69" t="s">
-        <v>446</v>
+        <v>510</v>
       </c>
       <c r="K69" t="s">
-        <v>447</v>
+        <v>511</v>
       </c>
       <c r="L69" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>443</v>
+        <v>506</v>
       </c>
       <c r="O69" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6532,50 +7072,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>449</v>
+        <v>513</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>60250</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>125372</v>
+      </c>
+      <c r="C70" t="s">
+        <v>514</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>450</v>
+        <v>515</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>451</v>
+        <v>516</v>
       </c>
       <c r="J70" t="s">
-        <v>452</v>
+        <v>517</v>
       </c>
       <c r="K70" t="s">
-        <v>453</v>
+        <v>518</v>
       </c>
       <c r="L70" t="s">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="O70" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6599,50 +7143,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>454</v>
+        <v>519</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>60250</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>44713</v>
+      </c>
+      <c r="C71" t="s">
+        <v>520</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>455</v>
+        <v>521</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>456</v>
+        <v>522</v>
       </c>
       <c r="J71" t="s">
-        <v>457</v>
+        <v>523</v>
       </c>
       <c r="K71" t="s">
-        <v>458</v>
+        <v>524</v>
       </c>
       <c r="L71" t="s">
-        <v>459</v>
+        <v>525</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>460</v>
+        <v>526</v>
       </c>
       <c r="O71" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -6666,41 +7214,45 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>459</v>
+        <v>525</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>60250</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>125373</v>
+      </c>
+      <c r="C72" t="s">
+        <v>527</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>461</v>
+        <v>528</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>462</v>
+        <v>529</v>
       </c>
       <c r="J72" t="s">
-        <v>463</v>
+        <v>530</v>
       </c>
       <c r="K72" t="s">
-        <v>464</v>
+        <v>531</v>
       </c>
       <c r="L72" t="s">
-        <v>465</v>
+        <v>532</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
@@ -6729,50 +7281,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>465</v>
+        <v>532</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>60250</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>125374</v>
+      </c>
+      <c r="C73" t="s">
+        <v>533</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>467</v>
+        <v>535</v>
       </c>
       <c r="J73" t="s">
-        <v>468</v>
+        <v>536</v>
       </c>
       <c r="K73" t="s">
-        <v>469</v>
+        <v>537</v>
       </c>
       <c r="L73" t="s">
-        <v>470</v>
+        <v>538</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>460</v>
+        <v>526</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -6796,50 +7352,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>470</v>
+        <v>538</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>60250</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>25186</v>
+      </c>
+      <c r="C74" t="s">
+        <v>539</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>471</v>
+        <v>540</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>472</v>
+        <v>541</v>
       </c>
       <c r="J74" t="s">
-        <v>473</v>
+        <v>542</v>
       </c>
       <c r="K74" t="s">
-        <v>474</v>
+        <v>543</v>
       </c>
       <c r="L74" t="s">
-        <v>475</v>
+        <v>544</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>476</v>
+        <v>545</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -6863,41 +7423,45 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>475</v>
+        <v>544</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>60250</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>125375</v>
+      </c>
+      <c r="C75" t="s">
+        <v>546</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>477</v>
+        <v>547</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>478</v>
+        <v>548</v>
       </c>
       <c r="J75" t="s">
-        <v>479</v>
+        <v>549</v>
       </c>
       <c r="K75" t="s">
-        <v>480</v>
+        <v>550</v>
       </c>
       <c r="L75" t="s">
-        <v>481</v>
+        <v>551</v>
       </c>
       <c r="M75" t="n">
         <v>1</v>
@@ -6926,50 +7490,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>481</v>
+        <v>551</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>60250</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>28546</v>
+      </c>
+      <c r="C76" t="s">
+        <v>552</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>482</v>
+        <v>553</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>483</v>
+        <v>554</v>
       </c>
       <c r="J76" t="s">
-        <v>484</v>
+        <v>555</v>
       </c>
       <c r="K76" t="s">
-        <v>485</v>
+        <v>556</v>
       </c>
       <c r="L76" t="s">
-        <v>486</v>
+        <v>557</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>487</v>
+        <v>558</v>
       </c>
       <c r="O76" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -6993,50 +7561,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>486</v>
+        <v>557</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>60250</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>125376</v>
+      </c>
+      <c r="C77" t="s">
+        <v>559</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>488</v>
+        <v>560</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>489</v>
+        <v>561</v>
       </c>
       <c r="J77" t="s">
-        <v>490</v>
+        <v>562</v>
       </c>
       <c r="K77" t="s">
-        <v>491</v>
+        <v>563</v>
       </c>
       <c r="L77" t="s">
-        <v>492</v>
+        <v>564</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>487</v>
+        <v>558</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7060,50 +7632,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>492</v>
+        <v>564</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>60250</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>10393</v>
+      </c>
+      <c r="C78" t="s">
+        <v>565</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>493</v>
+        <v>566</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>494</v>
+        <v>567</v>
       </c>
       <c r="J78" t="s">
-        <v>495</v>
+        <v>568</v>
       </c>
       <c r="K78" t="s">
-        <v>496</v>
+        <v>569</v>
       </c>
       <c r="L78" t="s">
-        <v>497</v>
+        <v>570</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>498</v>
+        <v>571</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7127,50 +7703,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>499</v>
+        <v>572</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>60250</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>125377</v>
+      </c>
+      <c r="C79" t="s">
+        <v>573</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>500</v>
+        <v>574</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>501</v>
+        <v>575</v>
       </c>
       <c r="J79" t="s">
-        <v>502</v>
+        <v>576</v>
       </c>
       <c r="K79" t="s">
-        <v>503</v>
+        <v>577</v>
       </c>
       <c r="L79" t="s">
-        <v>504</v>
+        <v>578</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>505</v>
+        <v>579</v>
       </c>
       <c r="O79" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -7194,50 +7774,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>504</v>
+        <v>578</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>60250</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>125378</v>
+      </c>
+      <c r="C80" t="s">
+        <v>580</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>506</v>
+        <v>581</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>507</v>
+        <v>582</v>
       </c>
       <c r="J80" t="s">
-        <v>508</v>
+        <v>583</v>
       </c>
       <c r="K80" t="s">
-        <v>509</v>
+        <v>584</v>
       </c>
       <c r="L80" t="s">
-        <v>510</v>
+        <v>585</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>505</v>
+        <v>579</v>
       </c>
       <c r="O80" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -7261,50 +7845,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>510</v>
+        <v>585</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>60250</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>16299</v>
+      </c>
+      <c r="C81" t="s">
+        <v>586</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>511</v>
+        <v>587</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>512</v>
+        <v>588</v>
       </c>
       <c r="J81" t="s">
-        <v>513</v>
+        <v>589</v>
       </c>
       <c r="K81" t="s">
-        <v>514</v>
+        <v>590</v>
       </c>
       <c r="L81" t="s">
-        <v>515</v>
+        <v>591</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>505</v>
+        <v>579</v>
       </c>
       <c r="O81" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7328,50 +7916,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>516</v>
+        <v>592</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>60250</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>125379</v>
+      </c>
+      <c r="C82" t="s">
+        <v>593</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>517</v>
+        <v>594</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>518</v>
+        <v>595</v>
       </c>
       <c r="J82" t="s">
-        <v>519</v>
+        <v>596</v>
       </c>
       <c r="K82" t="s">
-        <v>520</v>
+        <v>597</v>
       </c>
       <c r="L82" t="s">
-        <v>521</v>
+        <v>598</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>522</v>
+        <v>599</v>
       </c>
       <c r="O82" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="P82" t="n">
         <v>4</v>
@@ -7395,50 +7987,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>521</v>
+        <v>598</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>60250</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>125380</v>
+      </c>
+      <c r="C83" t="s">
+        <v>600</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>523</v>
+        <v>601</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>524</v>
+        <v>602</v>
       </c>
       <c r="J83" t="s">
-        <v>525</v>
+        <v>603</v>
       </c>
       <c r="K83" t="s">
-        <v>526</v>
+        <v>604</v>
       </c>
       <c r="L83" t="s">
-        <v>527</v>
+        <v>605</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>528</v>
+        <v>606</v>
       </c>
       <c r="O83" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -7462,7 +8058,7 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>529</v>
+        <v>607</v>
       </c>
     </row>
     <row r="84">
@@ -7475,28 +8071,28 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>530</v>
+        <v>608</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>531</v>
+        <v>609</v>
       </c>
       <c r="J84" t="s">
-        <v>532</v>
+        <v>610</v>
       </c>
       <c r="K84" t="s">
-        <v>533</v>
+        <v>611</v>
       </c>
       <c r="L84" t="s">
-        <v>534</v>
+        <v>612</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
@@ -7525,50 +8121,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>534</v>
+        <v>612</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>60250</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>243</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>535</v>
+        <v>613</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>536</v>
+        <v>614</v>
       </c>
       <c r="J85" t="s">
-        <v>537</v>
+        <v>615</v>
       </c>
       <c r="K85" t="s">
-        <v>538</v>
+        <v>616</v>
       </c>
       <c r="L85" t="s">
-        <v>539</v>
+        <v>617</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>540</v>
+        <v>618</v>
       </c>
       <c r="O85" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P85" t="n">
         <v>4</v>
@@ -7592,50 +8192,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>539</v>
+        <v>617</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>60250</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>125381</v>
+      </c>
+      <c r="C86" t="s">
+        <v>619</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>541</v>
+        <v>620</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>542</v>
+        <v>621</v>
       </c>
       <c r="J86" t="s">
-        <v>543</v>
+        <v>622</v>
       </c>
       <c r="K86" t="s">
-        <v>544</v>
+        <v>623</v>
       </c>
       <c r="L86" t="s">
-        <v>545</v>
+        <v>624</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>546</v>
+        <v>625</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -7659,50 +8263,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>545</v>
+        <v>624</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>60250</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>125382</v>
+      </c>
+      <c r="C87" t="s">
+        <v>626</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>547</v>
+        <v>627</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>548</v>
+        <v>628</v>
       </c>
       <c r="J87" t="s">
-        <v>549</v>
+        <v>629</v>
       </c>
       <c r="K87" t="s">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="L87" t="s">
-        <v>551</v>
+        <v>631</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>546</v>
+        <v>625</v>
       </c>
       <c r="O87" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -7726,50 +8334,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>551</v>
+        <v>631</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>60250</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>125383</v>
+      </c>
+      <c r="C88" t="s">
+        <v>632</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>552</v>
+        <v>633</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>553</v>
+        <v>634</v>
       </c>
       <c r="J88" t="s">
-        <v>554</v>
+        <v>635</v>
       </c>
       <c r="K88" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="L88" t="s">
-        <v>555</v>
+        <v>636</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>556</v>
+        <v>637</v>
       </c>
       <c r="O88" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -7793,50 +8405,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>555</v>
+        <v>636</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>60250</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>125384</v>
+      </c>
+      <c r="C89" t="s">
+        <v>638</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>557</v>
+        <v>639</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>558</v>
+        <v>640</v>
       </c>
       <c r="J89" t="s">
-        <v>559</v>
+        <v>641</v>
       </c>
       <c r="K89" t="s">
-        <v>560</v>
+        <v>642</v>
       </c>
       <c r="L89" t="s">
-        <v>561</v>
+        <v>643</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>562</v>
+        <v>644</v>
       </c>
       <c r="O89" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P89" t="n">
         <v>4</v>
@@ -7860,50 +8476,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>561</v>
+        <v>643</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>60250</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>125385</v>
+      </c>
+      <c r="C90" t="s">
+        <v>645</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>563</v>
+        <v>646</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>564</v>
+        <v>647</v>
       </c>
       <c r="J90" t="s">
-        <v>565</v>
+        <v>648</v>
       </c>
       <c r="K90" t="s">
-        <v>566</v>
+        <v>649</v>
       </c>
       <c r="L90" t="s">
-        <v>567</v>
+        <v>650</v>
       </c>
       <c r="M90" t="n">
         <v>3</v>
       </c>
       <c r="N90" t="s">
-        <v>568</v>
+        <v>651</v>
       </c>
       <c r="O90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P90" t="n">
         <v>3</v>
@@ -7927,41 +8547,45 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>567</v>
+        <v>650</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>60250</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>125386</v>
+      </c>
+      <c r="C91" t="s">
+        <v>652</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>569</v>
+        <v>653</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>570</v>
+        <v>654</v>
       </c>
       <c r="J91" t="s">
-        <v>571</v>
+        <v>655</v>
       </c>
       <c r="K91" t="s">
-        <v>572</v>
+        <v>656</v>
       </c>
       <c r="L91" t="s">
-        <v>573</v>
+        <v>657</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
@@ -7990,50 +8614,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>573</v>
+        <v>657</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>60250</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>35990</v>
+      </c>
+      <c r="C92" t="s">
+        <v>658</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>574</v>
+        <v>659</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>575</v>
+        <v>660</v>
       </c>
       <c r="J92" t="s">
-        <v>576</v>
+        <v>661</v>
       </c>
       <c r="K92" t="s">
-        <v>577</v>
+        <v>662</v>
       </c>
       <c r="L92" t="s">
-        <v>578</v>
+        <v>663</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>522</v>
+        <v>599</v>
       </c>
       <c r="O92" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8057,50 +8685,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>579</v>
+        <v>664</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>60250</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>125387</v>
+      </c>
+      <c r="C93" t="s">
+        <v>665</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>580</v>
+        <v>666</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>581</v>
+        <v>667</v>
       </c>
       <c r="J93" t="s">
-        <v>582</v>
+        <v>668</v>
       </c>
       <c r="K93" t="s">
-        <v>583</v>
+        <v>669</v>
       </c>
       <c r="L93" t="s">
-        <v>584</v>
+        <v>670</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>585</v>
+        <v>671</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P93" t="s"/>
       <c r="Q93" t="s"/>
@@ -8114,50 +8746,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>586</v>
+        <v>672</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>60250</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>74574</v>
+      </c>
+      <c r="C94" t="s">
+        <v>673</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>587</v>
+        <v>674</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>588</v>
+        <v>675</v>
       </c>
       <c r="J94" t="s">
-        <v>589</v>
+        <v>676</v>
       </c>
       <c r="K94" t="s">
-        <v>590</v>
+        <v>677</v>
       </c>
       <c r="L94" t="s">
-        <v>591</v>
+        <v>678</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>592</v>
+        <v>679</v>
       </c>
       <c r="O94" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -8181,50 +8817,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>591</v>
+        <v>678</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>60250</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>8437</v>
+      </c>
+      <c r="C95" t="s">
+        <v>680</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>593</v>
+        <v>681</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>594</v>
+        <v>682</v>
       </c>
       <c r="J95" t="s">
-        <v>595</v>
+        <v>683</v>
       </c>
       <c r="K95" t="s">
-        <v>596</v>
+        <v>684</v>
       </c>
       <c r="L95" t="s">
-        <v>597</v>
+        <v>685</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>598</v>
+        <v>686</v>
       </c>
       <c r="O95" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -8248,41 +8888,45 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>597</v>
+        <v>685</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>60250</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>43832</v>
+      </c>
+      <c r="C96" t="s">
+        <v>687</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>599</v>
+        <v>688</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>600</v>
+        <v>689</v>
       </c>
       <c r="J96" t="s">
-        <v>601</v>
+        <v>690</v>
       </c>
       <c r="K96" t="s">
-        <v>602</v>
+        <v>691</v>
       </c>
       <c r="L96" t="s">
-        <v>603</v>
+        <v>692</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
@@ -8311,35 +8955,39 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>603</v>
+        <v>692</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>60250</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>68553</v>
+      </c>
+      <c r="C97" t="s">
+        <v>693</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>604</v>
+        <v>694</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>605</v>
+        <v>695</v>
       </c>
       <c r="J97" t="s">
-        <v>606</v>
+        <v>696</v>
       </c>
       <c r="K97" t="s"/>
       <c r="L97" t="s"/>
@@ -8355,33 +9003,34 @@
       <c r="V97" t="n">
         <v>0</v>
       </c>
-      <c r="W97" t="s"/>
-      <c r="X97" t="s"/>
-      <c r="Y97" t="s"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>60250</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>6657</v>
+      </c>
+      <c r="C98" t="s">
+        <v>697</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>607</v>
+        <v>698</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>608</v>
+        <v>699</v>
       </c>
       <c r="J98" t="s"/>
       <c r="K98" t="s"/>
@@ -8398,33 +9047,34 @@
       <c r="V98" t="n">
         <v>0</v>
       </c>
-      <c r="W98" t="s"/>
-      <c r="X98" t="s"/>
-      <c r="Y98" t="s"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>60250</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>125388</v>
+      </c>
+      <c r="C99" t="s">
+        <v>700</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>609</v>
+        <v>701</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>610</v>
+        <v>702</v>
       </c>
       <c r="J99" t="s"/>
       <c r="K99" t="s"/>
@@ -8441,9 +9091,6 @@
       <c r="V99" t="n">
         <v>0</v>
       </c>
-      <c r="W99" t="s"/>
-      <c r="X99" t="s"/>
-      <c r="Y99" t="s"/>
     </row>
   </sheetData>
 </worksheet>

--- a/data/hotels_by_city/Dallas/Dallas_shard_93.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_93.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="632">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,42 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>ryan l</t>
-  </si>
-  <si>
-    <t>05/28/2018</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r588516517-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>1515540</t>
+  </si>
+  <si>
+    <t>588516517</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Horrible condition of the room!</t>
+  </si>
+  <si>
+    <t>We stayed here one night. The room they gave us was one with a big gash in the wall. The curtains were dirty. The walls were in need of a a touch up paint job. The breakfast is pretty good. They have potatoes. They have a poor selection of bagels. I addressed these issues with Ed in guest relations, and he said I was always complaining.  If they did not have issues, I would not be complaining. I am a platinum member, and to date have had 27 stays. I have only had about 4 complaints out of 27. This is no way to talk to a customer! Ed gave me reference number 9110302. I am in total shock that this hotel would give me a room like this!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We stayed here one night. The room they gave us was one with a big gash in the wall. The curtains were dirty. The walls were in need of a a touch up paint job. The breakfast is pretty good. They have potatoes. They have a poor selection of bagels. I addressed these issues with Ed in guest relations, and he said I was always complaining.  If they did not have issues, I would not be complaining. I am a platinum member, and to date have had 27 stays. I have only had about 4 complaints out of 27. This is no way to talk to a customer! Ed gave me reference number 9110302. I am in total shock that this hotel would give me a room like this!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r578542276-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
-    <t>55857</t>
-  </si>
-  <si>
-    <t>1515540</t>
-  </si>
-  <si>
     <t>578542276</t>
   </si>
   <si>
@@ -186,9 +207,6 @@
     <t>I felt obligated to give my fellow travelers some honest insight. My spouse and I travel for a living. We are exposed to all types of communities, and hotels. We stayed in the comfort suite for 2 nights, and this is the second time we have stayed here this year. This property is not "fancy", and it may even strike you as somewhat plain. The truth, however, is it is a hidden gem. The hotel has large rooms, that are clean, at a "value" hotel price. There is a pool and hot tub, along with a workout center, and a very nice breakfast bar that is complimentary, and unlimited. We had great customer service from every employee, and especially from a young lady named "Champaine", who ran the front desk.  There is restaurants (nice ones) and bars right outside the parking area, liquor store, nail salon, and many more retail establishments, right next to the property. Most of all, it is family friendly. Quiet, secure, and ample. I hope this helps, and make sure to ask for "Champaine" at the front desk!More</t>
   </si>
   <si>
-    <t>Rosemarie H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r571791316-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -204,9 +222,6 @@
     <t>We have always enjoyed staying at Comfort Suites until tonight.  Let me start with the PRO’s: Quiet location, front desk personnel very nice. CON’s: room has not aged well, TV was not working throughput the entire hotel - blamed on carrier, rooms very dark. It appears they are using low wattage bulbs. We are traveling a long way on this vacation. We have been and will be staying at other Comfort Suites. I hope they are better.</t>
   </si>
   <si>
-    <t>Starviagera</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r565936734-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -225,12 +240,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>SherylBoen</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r555049207-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -249,9 +258,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t>mavericktravel</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r547078806-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -273,9 +279,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>cynthiakovatch</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r535738522-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -297,9 +300,6 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>Pam M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r535374748-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -315,9 +315,6 @@
     <t>Nice desk staff. Excellent hot breakfast with the usual offerings. Hotel is clean and bed comfortable. Hotel is on the interstate, but sits back off the access road so noise from the highway is not a problem.</t>
   </si>
   <si>
-    <t>kenFlorida</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r535176752-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -333,9 +330,6 @@
     <t>I'm always looking for a good deal and my wife looks for cleanliness and safety. This motel was all of that. Very quiet, clean, great breakfast. The motel address is on the Interstate but it sits back from I-35 so it was quiet and we didn't hear traffic.</t>
   </si>
   <si>
-    <t>tommydads</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r533138410-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -354,9 +348,6 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Judi B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r487664503-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -375,9 +366,6 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t>Jason F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r476247999-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -396,9 +384,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t>parshopper</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r469618647-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -435,9 +420,6 @@
     <t>My husband and I took our two young kids to Fort Worth for the weekend for a fun little trip to the zoo and Grapevine Mills Mall. We booked this hotel for Friday night and Saturday night. We unpacked our car and locked it and left it at about 11:30 Friday night. This hotel was comfortable and clean and the staff was super friendly and helpful. The breakfast was good with a wide selection and the pool was nice and clean. However the area it's in is less than savory... we woke up Saturday morning and went to the car to leave for the mall and found that our driver side window had been shattered and the interior of the car had been trashed.  We were two hours from home so there was no way we could stay anywhere in Fort Worth without a window in our car so we had to turn around and come home. However the staff was awesome. They had maintenance bring us a shop vac to clean the glass out of our car. They refunded our Saturday night stay (even though we were on the non refundable policy) since we couldn't stay our second night. I definitely recommend the hotel but if you stay here make sure you park around the front where your car isn't as hidden and watch your belongings. We were parked around the side just out of view of a camera....My husband and I took our two young kids to Fort Worth for the weekend for a fun little trip to the zoo and Grapevine Mills Mall. We booked this hotel for Friday night and Saturday night. We unpacked our car and locked it and left it at about 11:30 Friday night. This hotel was comfortable and clean and the staff was super friendly and helpful. The breakfast was good with a wide selection and the pool was nice and clean. However the area it's in is less than savory... we woke up Saturday morning and went to the car to leave for the mall and found that our driver side window had been shattered and the interior of the car had been trashed.  We were two hours from home so there was no way we could stay anywhere in Fort Worth without a window in our car so we had to turn around and come home. However the staff was awesome. They had maintenance bring us a shop vac to clean the glass out of our car. They refunded our Saturday night stay (even though we were on the non refundable policy) since we couldn't stay our second night. I definitely recommend the hotel but if you stay here make sure you park around the front where your car isn't as hidden and watch your belongings. We were parked around the side just out of view of a camera. Someone else who frequents the area told us that the motel 6 across the way is notorious for hookers and drugs and that's where a lot of the break ins come from and that it's a pretty common occurrence in the area, so be aware.More</t>
   </si>
   <si>
-    <t>Ahmed M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r458771379-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -456,9 +438,6 @@
     <t>February 2017</t>
   </si>
   <si>
-    <t>Janelle M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r453070585-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -477,9 +456,6 @@
     <t>January 2017</t>
   </si>
   <si>
-    <t>Shannonpo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r433806112-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -498,9 +474,6 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t>Joe C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r417753827-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -519,9 +492,6 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t>Becky H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r417259436-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -540,9 +510,6 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t>Sarah H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r414952770-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -558,9 +525,6 @@
     <t xml:space="preserve">My husband and I thoroughly enjoyed our stay at Comfort Suites. Super clean hotel with amazing staff! Breakfast is the normal hotel waffle breakfast, etc, but the waffle iron is in the shape of Texas, so that was different. Stayed 3 days and we don't have anything bad to say about it. Would come back in a heartbeat! </t>
   </si>
   <si>
-    <t>stargatefan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r399990629-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -582,9 +546,6 @@
     <t>We stayed at The Comfort Suites while visiting family in the area. We chose this hotel because it had all of our must-haves: free breakfast, free wi-fi, free parking, indoor pool and hot tub and a microwave and fridge in the room. It also had a washer and dryer on the second floor that one could use for only $1 each. It did not disappoint! It was quiet and comfortable. The only negative thing I would have to say about it is that I did notice that the containers of yogurt offered for breakfast one day were past their expiration date. There are no restaurants nearby (the hotel is in an industrial park-like area), you need to drive up the freeway a few exits but that was never a problem for us because we were out and about every day anyway. It was reasonably priced so a very good value!More</t>
   </si>
   <si>
-    <t>jgumms</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r395312620-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -600,9 +561,6 @@
     <t>Hotel is nice. Staff is great. BUT...Super 8 next door could be a crack house. Very low shower water pressure. Internet, TV, and phones all went down, (same provider), first night I was there and on the third night it seemingly never fully recovered because net still really slow. Business center computer NEVER worked and I needed to print so I will have to go to FedEx office now. TV picture is analog, no HD. King rooms tiny, smallest in the hotel. Bath nice size. Lots of usable workspace. DOES have iPod plug on radio. Nice breakfast is over at 9:00. Indoor pool and hot tub.</t>
   </si>
   <si>
-    <t>tatanka01</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r390327343-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -618,9 +576,6 @@
     <t>This was a pretty average place -- about on par with a HI Express.  Clean rooms and the breakfast was good.  Friendly staff.  WiFi very slow.  We slept fine (king bed).  Stayed two nights and on our last morning the elevator was out of order.  We'd stay here again.  I am trying to figure out why I paid $125 a night when TA looks a lot cheaper.</t>
   </si>
   <si>
-    <t>pmhhh</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r382040456-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -636,9 +591,6 @@
     <t>This was a pretty good hotel but what is that smell? Good breakfast,  staff, comfortable beds my ONLY complaint was that there was a faint urine odor in our room. Besides that it was great and I would stay again.</t>
   </si>
   <si>
-    <t>Tish L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r368576823-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -657,9 +609,6 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t>Betty T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r353140822-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -681,9 +630,6 @@
     <t>My daughters home burnt to the ground everything she owned ,American Red Cross put her and the babies (2month&amp;16month) up at Comfort Suites for mutiple days everyone was so nice and very sympathetic helped in ever way they could.The worker told them that red cross funding was over &amp;we packed and moved her &amp; the babies out &amp; accidently left the part of the babys swing that she lays in ( friends had bought)we called to run back and get it &amp; they refused to give it to us,stated we owed for the last night we stayed.the only "bed "she has and they kept it ,we left room very clean &amp; they kept part of the babys bed?Unbelievable being everything had been lost in the fire then they acted in a way never expected.More</t>
   </si>
   <si>
-    <t>Crystal H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r344161165-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -702,9 +648,6 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t>terrymanningbutts</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r342183994-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -723,9 +666,6 @@
     <t>We went to Ft Worth for a funeral.  My mother-in-law, her sister and daughter came from a different direction. I chose this hotel because of its location, as well as the fact that all rooms were suites in case we all wanted to sit and visit.  The people were very friendly, the complimentary breakfast was nice and it has an indoor pool and hot tub.  The only drawback is that their signage on the feeder road is so overpowered by the other hotel that sits in front of it that it is hard to spot.  The hotel sits back off of I-35 which is nice because you don't have the road noise.  I will stay here again next time we are in Ft Worth.  Oh, and our other group had a handicap room because one was on crutches and the room was huge!  She really appreciated the use of the handicap bathroom and shower (a luxury she doesn't have at home).More</t>
   </si>
   <si>
-    <t>HBK2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r327394975-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -747,9 +687,6 @@
     <t>Okay, I'll be honest. Those of who who have read my other reviews will not be surprised to hear me say again that we don't stay in Choice Hotel properties much, and when we do, it's usually just to catch a few hours of sleep on a long road trip or, as was the case with this stay, when nothing else is available. And this hotel typified why. It wasn't horrible. The room and the property were clean enough, so it's not that. But everything just felt a little rundown and tired. Creaky and inefficient heating and cooling, dated finishes in the bathroom, nicks and dings in the furniture. This was especially true in the cramped and tiny fitness center. The elliptical and the weight machine were functional, but pretty well beat up and I didn't get the sense that the housekeeping staff got in there very often. The staff, on the other hand, were as attentive and kind as they could be. Every exchange with them felt as though they were genuinely prepared to do whatever I needed to make my stay more pleasant. Can't say that's always the case—at Choice Hotels or any other chain, for that matter. This place did the trick, and I wouldn't necessarily avoid it, but I wouldn't go out of my way to stay again.More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r316177301-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -771,9 +708,6 @@
     <t>My fiancé &amp; I booked this hotel for 2 nights over the weekend. When we arrived Friday night we walked into our room &amp; were greeted with white "stuff" ALL OVER the entry room wall. It looked (I am not over exaggerating) like semen &amp; I was disgusted... When I called the front desk the night shift manager &amp; a maintenance man came to the room, "cleaned" off the wall &amp; told me it was a housekeeping mistake. I told the manager we wanted another room &amp; she told me that she could not put us in another room. I was livid &amp; will never step foot into this hotel ever again.  ThMore</t>
   </si>
   <si>
-    <t>wldflygirl</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r315089871-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -792,9 +726,6 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t>Mrfamilyvacation</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r313052647-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -810,9 +741,6 @@
     <t>The hotel is nice but located in a sketchy area of Fort Worth. I made a prepaid reservation on Expedia that could not be readily located upon arrival. General manager and staff person at hotel told me that "it was an Expedia problem - contact them". With all other hotels in the area booked, my family was in a bind. Only after a hardworking night auditor spent 45 minutes digging through the hotel information system was my reservation found. Thanks to her we had a room for the night.  The attitude of the general manager was shocking - poor customer service.</t>
   </si>
   <si>
-    <t>DeDe L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r310000000-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -831,9 +759,6 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t>Spann77t</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r309394266-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -849,9 +774,6 @@
     <t>We had an unexpected family emergency that called us to Fort Worth, when checking hotels I came across Comfort Suites Fort Woth at 6450 S. Fwy, made reservation and upon arrival they were so kind, rooms were Nice &amp; Clean, pool was wonderful, service was excellent, breakfast great and the Prices were WORTH IT &amp; REASONABLE!!! Would diffenately stay again- Thank You for the wonderful service.</t>
   </si>
   <si>
-    <t>Catherine B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r303530293-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -870,9 +792,6 @@
     <t>My daughter and I drove from CT to Tx and stopped here prior to moving her into her apartment. We do usually choose this hotel when visiting TCU simply because we have had great luck here and not so good experiences elsewhere. The hotel was, as always, clean and well furnished. It was a relief to have a clean bathroom after 2 days on the road. The beds were just right and we were grateful to feel safe enough to leave our car full of supplies in the parking lot. The only (very small) issue was that the ac was a bit slow to cool the room . However, once the room was cool, it was sustainable. Will continue to come back here in lieu of risking other venues!More</t>
   </si>
   <si>
-    <t>Phillip H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r297504465-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -888,9 +807,6 @@
     <t>Really nice hotel at a good price. Nice staff, clean room, great amenities. Service at the vallet/front entrance when checking in and out could be better. Also was transferred to concierge twice with no answer or call back. Overall good experience!"Levita" the front desk took care of me.</t>
   </si>
   <si>
-    <t>Stephanie P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r297187741-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -909,9 +825,6 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t>Amanda H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r292928339-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -930,9 +843,6 @@
     <t>We arrived at the motel just in time for one of my children to get a nap. I pulled out the sleeper sofa to find a mess of sheets mixed in with someone's lighter, e cigarette and money. Someone had obviously been smoking in our room and what's worse is that house keeping hadn't checked the sofa to change the sheets. The bathroom floor was grimy and dirty with lots of random hairs on it. I wiped it down with a washcloth to take a picture and then got distracted. I did complain to the front desk and they were very helpful to give me new sheets and a blanket to make the bed myself. I'm posting this review because I value the importance of taking pride in ones work and clearly housekeeping, was not trying to make sure our room was ready for us.More</t>
   </si>
   <si>
-    <t>BritKansas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r277553854-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -951,9 +861,6 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t>Maggie N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r272853125-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -970,9 +877,6 @@
   </si>
   <si>
     <t>We, Landmark Baptist Church,  had a group of preachers and students from Kenya staying in this hotel. Everyone one spoke of how much they enjoyed their stay at Comfort Suites in Fort Worth, TX. The rooms are always clean and very comfortable and the staff are always ready to help if needed. The atmosphere is pleasant and homey.Lucy and Jennifer were most helpful in setting up these reservations for us and they helped so much with adjustments in the rooms when someone had to leave early or new people showed up late. We appreciate them very much and we will continue to use Comfort Suites at 6450 S. Freeway, Ft. Worth, TX. Thank your Ladies.More</t>
-  </si>
-  <si>
-    <t>Allen M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r261155833-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
@@ -1053,9 +957,6 @@
 It is a 20 min drive into Fort Worth and restaurants like the Red Lobster were about 10mins...We needed a one nighter and after reading some trip advisor reviews decided we would stay. No other room available other than the special needs suite.Not a problem.I do not have any physical disabilities so as I review this I am mindful that someone with special needs may view this.The room is large enough to manoeuvre a wheel chair, however if you have to move the coffee table it is heavy and would be difficult. Towels are in reach , however , spares are higher up.Hanging space is at a accessible level.The shower is easily accessible.The only problem is they did not think about drainage and the floor not sloped appropriately .We had water everywhere puddled.Water almost flowed into the carpet.We had to use all the towels to wipe the floor.As for services the WIFI is slow and you can not print out boarding pass or anything from your email. The service is prohibited. Not very good for a business centre. Had to forward our emails to hotel and get them to print out.Room was clean but a little dated in decor.Breakfast was ordinary compared to other cheaper hotels we have stayed at.The carpets in halls dirty and there was a smell. It was also smelly in the lift. It is a 20 min drive into Fort Worth and restaurants like the Red Lobster were about 10mins drive. We paid $114USD for the night, with tax, without $99.This is more a $75 a night before tax.Overall I would probably not stay again unless got a better rate and were to tired to care.More</t>
   </si>
   <si>
-    <t>Kathryn C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r248371188-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1074,9 +975,6 @@
     <t>This was one of the cleanest hotels I've been in. Even the carpet didn't give me the "icky" feel i usually feel in hotels (even the 5 star ones). The staff was so friendly. The pool area was super clean and gave you a feeling of being at a resort. It was the warmest pool I've ever been in (an extra perk in the winter time). Hot tub was nice too, but since the heated pool actually felt heated I didn't really last long in the hot tub. There isn't any restaurants in the area to walk to, but the front desk has a variety of menues to restaurants that will deliver to the property if you don't feel like driving anywhere to eat. Would stay here again and will definately recommend to others.More</t>
   </si>
   <si>
-    <t>Merry K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r243514591-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1098,9 +996,6 @@
     <t>Sometimes you need to travel to another big city; away from home to visit relatives. You want comfort, sparkling cleanliness, and perhaps some neat perks! Comfort Suites in Ft. Worth, TX. delivers all of the above with excellency! Rooms are artistically modern with serious sleep bedding, big flat tv screen;refrigerator, and sleek, useful bathroom appointments. The breakfast cafe beckons you to hot and cold breakfast yums-free for your enjoyment. Need to get the kinks out of your body from travel? Then set aside time to use their well stocked exercise room-open all day and into the night. Comfort Suites is a quick access from airport to highway to hotel.The staff was especially attentive and friendly!More</t>
   </si>
   <si>
-    <t>Bonnie B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r242584578-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1116,9 +1011,6 @@
     <t>We had an excellent stay at this hotel when we were in Ft. Worth in November for the Cathedral Family Reunion at the MacGorman Peformaing Arts Center.  It was a short drive and we had a very nice quiet room with excellent service.  We could not have asked for a better place to stay.</t>
   </si>
   <si>
-    <t>Jean A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r240754393-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1134,9 +1026,6 @@
     <t>Our room was very nice, the staff was friendly. It is a quiet area, but near I-35W. It was a short drive to the MacGorman Performing Arts Center where we were attending the 2014 Texas Gospel Music Festival.</t>
   </si>
   <si>
-    <t>OwenNashville</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r239870277-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1155,9 +1044,6 @@
     <t>Large, comfortable room.  Friendly staff, clean room, acceptable location, and good price. Noisy heater.  You would think that by now a quiet room AC/heater would have been invented.  The door did not latch without several pulls.  Found it unlatched after housekeeping had been there.  We spent 3 hours listening to the ear-splitting fire alarm (2:30 -5:30 a.m.).  It seems nobody knew how to turn it off.  However, I would bet that this will not be an issue in the future.  The staff helped as best they could and compensated for the failure to provide a night's rest.  Access to downtown is easy via I35W.  Freeway noise is not an issue.  Even given the above issues, I would stay at this facility again.More</t>
   </si>
   <si>
-    <t>Robert H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r234512631-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1179,9 +1065,6 @@
     <t>Was very impressed with how this place was managed.  Whatever extras we needed, the staff accommodated us.  Room was comfortable.  Facility could use a refresh.  During a thunderstorm,rain came through the grout on the window.   Management apologized even though we didn't view it as a problem they should have prevented.  Convenient location off the freeway and by a major shopping center.  Roads to and from the hotel off the freeway can seem a little complicated.  But you can see the hotel and find your way.  Location is perfect for those traveling through.  If Fort Worth is your destination, its a drive to most of the attractions. Rates were good for the area.  Owner/management are a real plus.More</t>
   </si>
   <si>
-    <t>SoonerSteve</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r232707137-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1200,9 +1083,6 @@
     <t>October 2014</t>
   </si>
   <si>
-    <t>Jay A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r231779806-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1248,9 +1128,6 @@
     <t>My husband, daughter, and I stayed at this hotel for college orientation. It was convenient, clean, and had a very nice breakfast. The rooms were quiet and large enough to easily accommodate all three of us (we are 5'9"-6'5") and our multitude of bags as we were leaving from Dallas on a 2w vacation abroad. My very picky husband liked it enough that he made certain I booked it again when he went to drop her off this fall.</t>
   </si>
   <si>
-    <t>Jay H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r224943719-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1269,9 +1146,6 @@
     <t>August 2014</t>
   </si>
   <si>
-    <t>LucyandClive</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r220423842-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1290,9 +1164,6 @@
     <t>April 2014</t>
   </si>
   <si>
-    <t>BigDogAz</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r215026654-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1311,9 +1182,6 @@
     <t>July 2014</t>
   </si>
   <si>
-    <t>victoriabmw27</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r214413625-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1329,9 +1197,6 @@
     <t xml:space="preserve">Stayed at this hotel for an evening to attend a wedding in Fort Worth.  The hotel looked to be fairly new and the room on the 3rd floor which was one of their suites was very spacious.  Overall it was a nice hotel.  The room was clean and the hotel staff was friendly as well. </t>
   </si>
   <si>
-    <t>chelset</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r213598005-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1350,9 +1215,6 @@
     <t>We stayed at this Comfort Suites on our way to San Antonio and after going to the Ft Worth Zoo. It is located right off the interstate and perfect if you are traveling and don't want to get off the beaten path. It was nice and clean, the staff was friendly, breakfast was good, beds were comfortable, and the pool area was clean. Definitely one of the nicer Comfort Suites I've stayed in. Top notch!   That said, the location left a lot to be desired. It is off the highway far enough that you don't get road noise, but there isn't anything around. We used TripAdvisor (of course!) to look for a decent restaurant and we had to fight traffic to get to anywhere worthwhile. We were tired from the zoo and just wanted a decent meal close-by. It wasn't a big deal to drive and we didn't have to go too far or anything crazy, but this motel is not off a main exit with gas stations and restaurants in the immediate area.More</t>
   </si>
   <si>
-    <t>bingobiz</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r211025964-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1372,9 +1234,6 @@
   </si>
   <si>
     <t>For anyone traveling into the Fort Worth, Texas geography, this Comfort Suites hotel is a stand- out!  It's central to everything "Fort Worth," being right off a major artery and minutes from both downtown and the 'burbs.  It's affordably priced (we brought in over 30 nights worth of business with a company team working in the area), but there's more. This Comfort Suites runs a great little breakfast; they also have a Happy Hour (not that common anymore!) and their conference room facilities are perfect. But most importantly, the management and staff are very focused on customer satisfaction, and a total pleasure to work with. And the rooms (my experience) were immaculate, which means kudos to the service staff!Will stay here again anytime I'm in the Fort Worth area.  Way to go, Comfort Suites Fort Worth!More</t>
-  </si>
-  <si>
-    <t>GrammaRia</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r210084557-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
@@ -1404,9 +1263,6 @@
 Both mornings we had the "Do Not Disturb" sign out (check out is noon) and both mornings housekeeping knocked on the door at 10am.  The 2nd morning they knocked twice - once at 10 and again at 11.  What part of "do not disturb"...Even using GPS, we drove right by it and had to go around the block - it is tucked back from the road between 2 other hotels.  Check-in was smooth.  Alexis, at the front desk, was very nice.  Room was nice and clean.  All the usual amenities including makeup remover towelettes.  Yay!!  Dumb to get so excited about something so minor.  Hand rail in tub but was located awkwardly.  If taking a bath it would be very hard to use.  Would have like to have had night stand on both sides of the bed but there were plenty of outlets, for a change.  Breakfast was ok.  We got in the day before Mother's Day so were surprised that hours were same as weekday - 6 to 9 am.  No extra time for Sunday or special hours for Mother's Day.  At 8:15 am people were lined up.  Everyone slept in and tried to eat at the last minute.  Also, things were laid out confusingly.  Hard to find what you wanted.Otherwise place was ok.  We ordered pizza in the room and Gloria was nice and unlocked the breakfast area so we could get plastic plates and napkins.Both mornings we had the "Do Not Disturb" sign out (check out is noon) and both mornings housekeeping knocked on the door at 10am.  The 2nd morning they knocked twice - once at 10 and again at 11.  What part of "do not disturb" do they not understand?  I realize people check out and leave their signs hanging on the door, but the 1st morning we weren't checking out, and the 2nd, we were waiting till the last minute as we didn't have to go far.  Besides, check out was noon!More</t>
   </si>
   <si>
-    <t>Justin H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r205611197-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1425,9 +1281,6 @@
     <t>At the end of day after I had checked out I noticed my tablet was missing and that I had left it in the room. I called and was told it had not been turned in but was offered to go recheck the room. Tablet was not found and so I asked to speak with manager. Manager said would check video camera for any suspicious activity and call back next day. Little to be known manager would not be in until next day afternoon (I assumed this would be a top priority and I would contacted in the morning) still not found but was told only myself and staff showed to have opened my room door. I gave my opinion of how to fix this situation and a soft snicker was heard. I asked why she would laugh at my request since it was obvious my tablet was taken and myself and staff were only ones that had opened my room door. I asked for management company phone number and was told that an investigation would be done the very next morning and a phone call by the afternoon. To no avail it has been 3 weeks with no return call back. During this time I had tried reaching the manager and was contacted two days later. I asked for the information to the owner, manager said she is not allowed to give out (Wow really to not have accessibility...At the end of day after I had checked out I noticed my tablet was missing and that I had left it in the room. I called and was told it had not been turned in but was offered to go recheck the room. Tablet was not found and so I asked to speak with manager. Manager said would check video camera for any suspicious activity and call back next day. Little to be known manager would not be in until next day afternoon (I assumed this would be a top priority and I would contacted in the morning) still not found but was told only myself and staff showed to have opened my room door. I gave my opinion of how to fix this situation and a soft snicker was heard. I asked why she would laugh at my request since it was obvious my tablet was taken and myself and staff were only ones that had opened my room door. I asked for management company phone number and was told that an investigation would be done the very next morning and a phone call by the afternoon. To no avail it has been 3 weeks with no return call back. During this time I had tried reaching the manager and was contacted two days later. I asked for the information to the owner, manager said she is not allowed to give out (Wow really to not have accessibility to owner for a serious issue with this business) I asked manager to have owner call me back by the end of the week. Guess what exactly no call back. This issue has resulted in his business missing out on right out 3,000 in a year because I average a 3 day stay a month every year. This just may also cut Choice Hotels business as well completely. I travel 42 weeks a year. I am a Diamond with Hilton and wanted to reduce my expenses so I Choice Hotels.By the way I did do an initial call to Choice Customer service and was told they will not help so if this not good customer service then I have no idea.More</t>
   </si>
   <si>
-    <t>Lollie777</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r203284390-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1443,9 +1296,6 @@
     <t>We stayed in this hotel for convenience on a school trip. I was pleasantly surprised by the quality for the price. Our room was large, including a couch and frig! The indoor pool is a little small, but not unlike many indoor pools in this area. The free breakfast was nice as well. Would stay again! Very close to TCU, just hop on 35 and there in ten minutes. The neighborhood behind the facility is a little sketchy, but the fenced in area around the hotel made us feel safe and the quality of the hotel was great!</t>
   </si>
   <si>
-    <t>D T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r199636652-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1464,9 +1314,6 @@
     <t>March 2014</t>
   </si>
   <si>
-    <t>Noreen S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r198100603-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1485,9 +1332,6 @@
     <t>February 2014</t>
   </si>
   <si>
-    <t>veritasmama</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r197884800-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1503,9 +1347,6 @@
     <t>Our family was very pleased with this Comfort Suites.  It is such a dependable chain and this is a great one.  The rooms were quiet, comfortable and clean.  The staff was friendly and helpful.  The only disappointment was how very cold the indoor pool was.</t>
   </si>
   <si>
-    <t>sassycgirl</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r196284800-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1521,9 +1362,6 @@
     <t>After checking into a Baymont Inn in Arlington only to find the rooms were so nasty we would not stay there we moved to Comfort Suites in Fort Worth. The front desk staff was very nice and helped get us around town since there was construction. The rooms were clean and nice. The beds were comfy and the breakfast was what you would expect to find at any continental. The do have a nice little snack area in the lobby where you can purchase items which was nice. VERY nice place to stay!!!!</t>
   </si>
   <si>
-    <t>KimboTwo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r193435153-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1542,9 +1380,6 @@
     <t>Getting there: Via Altamesa exit, proceed south on one-way southbound access road one block, turn right at sign, Comfort Suites is to the right, and behind other motel at same entrance driveway.  Being 120 yards off Interstate makes for much less noise.  Staff was pleasant, helpful during our (wife plus me) 3-night stay.  Room was very clean, AC/Heat was quiet, bed comfortable.  Free breakfast (6am-9am) included choice of yogurt, cereal, fresh waffles (You cook 'em), scrambled eggs, sausage, bagels, muffins, milk, juice, coffee.  All good.  TV and lounge chairs adjacent to breakfast tables. Indoor pool (small) was very cool and clean. Hot tub (4 persons max) was also clean, 104 degrees F, nice.  Towels provided for pool area use.  No surprises, just a restful stay, at a well-kept property. Used AARP discount. Waffle House 2 blocks north, 1 Mile south to Whataburger, Sonic. 4 Miles south to MANY chain restaurants. I will return.More</t>
   </si>
   <si>
-    <t>sorryincarrollton</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r193161330-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1563,9 +1398,6 @@
     <t>January 2014</t>
   </si>
   <si>
-    <t>judie z</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r189518443-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1581,9 +1413,6 @@
     <t>December 2013</t>
   </si>
   <si>
-    <t>FredrickTX976</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r187410921-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1602,9 +1431,6 @@
     <t>I booked several rooms here at this location because we were in town to bury my aunt.  This was the closet hotel to where we needed to be.  We all arrived at the same time, and the young lady at the desk was very helpful and friendly. My aunt ended up booking a second room that night as well so we had a total of 5 rooms.  Seeing the area and the other properties within it's vicinity, I would have expected noise  especially from the highway, but there was no noise, so my night was a very peaceful one.  I noticed that there was only one way in and one way out of the property and now I know why and that is a good idea, considering some of the people that I seen walking around other parking lots.  The breakfast was great!!!! The breakfast attendant made sure everything was fully stocked, and she too was very friendly.  Although our stay was for a funeral, we will book again at this location when we are in the area and need a place to lay our heads.  I would like to give my Kudos to the management team and staff.  Thank you for making a trip that was filled with so much sorrow and hurt into a happy and pleasant trip.  From my family to yours, We love you and We Thank you!!More</t>
   </si>
   <si>
-    <t>kazza800</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r186483714-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1620,9 +1446,6 @@
     <t>My husband and I stayed here as part of our road trip holiday. I called and made a booking 3 hours before we arrived late at night, and the staff were so helpful. They provided us with a beautiful room &amp; really made us feel special by taking the time to always say hello and make a conversation (unlike other hotels we came across on our trip). The place itself was really nice, quite new and we had no issues whatsoever.Really recommend staying here if you get the chance to stay at Forth Worth- a lovely town too!</t>
   </si>
   <si>
-    <t>TexanXXL</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r183588828-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1641,9 +1464,6 @@
     <t>October 2013</t>
   </si>
   <si>
-    <t>KristenMA</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r182158870-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1659,9 +1479,6 @@
     <t>I am a frequent guest at this hotel.  Staff are very helpful and pleasant.  There is excellent management at this hotel.  Rooms are clean and spacious.  Breakfast options are great also.  I have stayed at several hotels in this chain and this is definitely one of the nicest.  I would recommend this hotel!</t>
   </si>
   <si>
-    <t>maggiemk</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r181806116-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1677,9 +1494,6 @@
     <t>I stayed three nights at this property while working in the area.  Jennifer Gonzales and her colleagues were SO helpful.  My room was quite large, at the back side, and the windows opened.  There is no restaurant in the hotel but local places will deliver.  Extremely convenient.</t>
   </si>
   <si>
-    <t>Stan W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r163964291-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1698,9 +1512,6 @@
     <t>June 2013</t>
   </si>
   <si>
-    <t>Mjvrev01</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r163320491-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1716,9 +1527,6 @@
     <t>We were traveling from Colorado, booked this room in the morning. We needed a suite with 2 beds. When we arrived late that evening to check in, we were informed that there was not a room available for our needs. There was one room, but it was dirty. This was very disappointing &amp; inconvenient. We booked several hotels at the last minute on this vacation, this is the only one we had an issue with. Will definitely think twice before booking with Choice Hotels.</t>
   </si>
   <si>
-    <t>Andrea G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r161277036-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1737,9 +1545,6 @@
     <t>May 2013</t>
   </si>
   <si>
-    <t>JusticeAK</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r161102775-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1755,9 +1560,6 @@
     <t>I was in Fort Worth for work and decided to stay at this comfort suites because is was a very convenient location.  Zero complaints, very friendly staff, always fresh coffee available and the breakfast is pretty good.  Rooms are very well maintained and clean.  For a hotel under $100 a night it can't be beat.  A word of advice, don't go to the oil well steakhouse right up the street, its a real dive.  Even the waffle house next door is better.</t>
   </si>
   <si>
-    <t>Amy L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r158332661-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1779,9 +1581,6 @@
     <t>We travel a lot and you never know what you're going to find when you get to your hotel after a long day of driving or flying. At this Comfort Suites the rooms are a good size and clean. They are in the process of updating the rooms so the carpet is new which is nice! The beds are also very comfortable and feel like they've been replaced recently. My Mom is in a wheelchair and the handicap room was definitely one of the top 5 handicap hotel rooms we've stayed in. The staff is very friendly and helpful! They were quick to try to accommodate any requests we had for extra pillows/towels, etc. The fridge in our mini-kitchen was broken and they promptly replaced it. We would definitely recommend the hotel to friends and would stay here again!More</t>
   </si>
   <si>
-    <t>VSARANTE</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r156706169-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1800,9 +1599,6 @@
     <t>March 2013</t>
   </si>
   <si>
-    <t>Kavin1301</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r154533018-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1818,9 +1614,6 @@
     <t>My wife and daughter spent 2 nights here while she attend a photography conference at the college.  Hotel was very clean, rooms were comfortable and the property is newer which makes it nice.  Close to the mall and restaurants nearby.  This part of Ft. Worth is old and kind of run down.</t>
   </si>
   <si>
-    <t>Gaelharp</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r154473035-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1839,9 +1632,6 @@
     <t>This hotel is located just off of I-35, with a Super 8 and Motel 6 in the immediate area. Not a great part of town, or located near anything of interest, but it's a good base for exploring the Metroplex if you don't mind driving a bit to get back to the hotel. Comfort Suites has a better location than the other two adjoining hotels, which are much closer to the interstate.We appreciated the Monday - Thursday happy hour, with complimentary snacks and sodas (and beer or wine for those of age.) The swimming pool was small and the water somewhat chilly, but the 7-year-old enjoyed swimming there in the evening with other kids.Breakfast was better than many value hotels. There were hot selections (sausage, eggs), a waffle-maker, plus yogurt, mini-muffins, fruit, cereal, and both "bold" and "mild" brewed coffee selections, besides hot water for tea and orange juice. Breakfast and happy hour are offered in a pleasant eating area.The 2-double-bed suites are roomy and have a refrigerator and microwave. It would be nice if the toilet/shower/bath part of the bathroom was separate from the sink/mirror part, but alas. There are a few fast-food-type restaurants nearby (Whataburger, Sonic), plus Joe's Italian has good and cheap pasta, pizza, and sandwiches. The Subway in the same small strip mall offers an after-5 dinner special for those looking to save money on eating out.More</t>
   </si>
   <si>
-    <t>htowntravelers</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r151656805-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1860,9 +1650,6 @@
     <t>March 2012</t>
   </si>
   <si>
-    <t>Mel4osu</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r150387754-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1917,9 +1704,6 @@
     <t>December 2012</t>
   </si>
   <si>
-    <t>EDDOC</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r146400231-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1938,9 +1722,6 @@
     <t>November 2012</t>
   </si>
   <si>
-    <t>janay w</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r144700566-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1956,9 +1737,6 @@
     <t>the employees were awsome. we had been bumped from our original hotel. the clerk at the hotel called and comfort suites had a room perfect for us. everyone was so great. we will stay at comfort suites anytime we are in the metroplex</t>
   </si>
   <si>
-    <t>svh50</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r141646073-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1974,9 +1752,6 @@
     <t>September 2012</t>
   </si>
   <si>
-    <t>Travel-to-you-Drop</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r136491550-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1995,9 +1770,6 @@
     <t>July 2012</t>
   </si>
   <si>
-    <t>mrsmeber99</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r129058696-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2016,9 +1788,6 @@
     <t>April 2012</t>
   </si>
   <si>
-    <t>Pidge101</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r126583913-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2034,9 +1803,6 @@
     <t>Rooms were very clean, free breakfast was delicious, and the people were friendly.  Value was the best part. Two nights with free breakfasts and an indoor pool for less than 200.  Will stay here again.</t>
   </si>
   <si>
-    <t>Keith T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r126539998-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2055,9 +1821,6 @@
     <t>I spent one night in this hotel recently as I traveled south on I-35. It's new and very clean. The staff are friendly and helpful. The rooms are relatively large and very comfortable, and the beds are very good. This is a nicer than usual Comfort Suites Hotel. Breakfast was typical for this hotel with hot and cold items including sausage and scrambled eggs and cook it yourself waffles. There was a microwave and frig in the room. The price with AAA was great. My only complaint - the bed pillows were square and a little thicker than I prefer - very minor. I would definitely stay again when in the area. Recommended.More</t>
   </si>
   <si>
-    <t>jesstraveling2</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r125670412-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2079,9 +1842,6 @@
     <t>I stayed at this hotel shortly after it opened about a year and a half ago.  The stay was very nice, so much so that when I am in Fort Worth for my doctor's visits this is the only hotel I stay in.  The hotel and the rooms are very clean, and the staff is quite nice; making you feel more than welcomed.  The "full" hot breakfast is really satisfying.  The hotel is set back a little from the freeway.  I suggest driving slowly on the freeway's access road and turning into the first entrance after the church on the right.  If you drive past the Super 8 hotel, you went too far.  Continue up the access road to the stop light, make a U-turn under the freeway and come back again.  Good luck.  I do not think you will regret staying there:  I have not!More</t>
   </si>
   <si>
-    <t>Jill P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r123872437-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2100,9 +1860,6 @@
     <t>September 2011</t>
   </si>
   <si>
-    <t>Jim K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r121949810-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2121,9 +1878,6 @@
     <t>November 2011</t>
   </si>
   <si>
-    <t>Kat K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r119274425-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2139,19 +1893,25 @@
     <t>Courteous staff. Upgraded rooms. Hotel is behind others on a hill providing privacy and quiet.</t>
   </si>
   <si>
-    <t>Jackie T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r100893216-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>100893216</t>
   </si>
   <si>
-    <t>March 20, 2011</t>
-  </si>
-  <si>
-    <t>Frank S</t>
+    <t>03/20/2011</t>
+  </si>
+  <si>
+    <t>Great place to stay, but somewhat hard to reach.</t>
+  </si>
+  <si>
+    <t>This motel has been open since Sept. 2010.  It was very clean and comfortable.  The front desk staff were friendly and helpful.  The biggest negative about this place is that when coming from the north, it's somewhat hard to access the motel.  Once you exit, you have to go down to the next exit (since the motel is just north of the I35 exit going south), go back north and then go south at the next exit to reach the motel.  Also, when leaving the motel and wanting to go north, you have to do about the same thing.  Since we stayed there for two nights, I did find a shortcut, through a residential area behind it, when wanting to go north onto the highway.  I would definitely stay here again since everything was very clean.  There is a great restaurant called The Rig just north of the restaurant.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>This motel has been open since Sept. 2010.  It was very clean and comfortable.  The front desk staff were friendly and helpful.  The biggest negative about this place is that when coming from the north, it's somewhat hard to access the motel.  Once you exit, you have to go down to the next exit (since the motel is just north of the I35 exit going south), go back north and then go south at the next exit to reach the motel.  Also, when leaving the motel and wanting to go north, you have to do about the same thing.  Since we stayed there for two nights, I did find a shortcut, through a residential area behind it, when wanting to go north onto the highway.  I would definitely stay here again since everything was very clean.  There is a great restaurant called The Rig just north of the restaurant.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r92221359-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
@@ -2160,13 +1920,40 @@
     <t>92221359</t>
   </si>
   <si>
-    <t>hnewburn</t>
+    <t>01/08/2011</t>
+  </si>
+  <si>
+    <t>Easy to see, hard to find in Fort Worth</t>
+  </si>
+  <si>
+    <t>We called ahead from the road to reserve this place once we knew we'd be stopping in Fort Worth for the night, and were pleased that they had a AAA rate (saving us 10%) and were "close" to I-30. It turns out, with the confusing layout of Texas interstate access roads, that it took us over 15 minutes to actually find our way to the entrance to the hotel parking lot once we'd seen the building. Quite a maze of access roads there. The hotel layout is the usual - interior corridors, elevators to the upper floors, breakfast area off the lobby. The room was mostly typical, too - two double beds, TV, private bathroom, etc. but the "suite" part came from a little extra room with sofa and table at the far end (by the window). This  turned out to be extremely well suited for the repacking we needed to do, and we liked it a lot. The breakfast was also typical - cereals, bagels, juice, coffee, etc., enough to get us going but nothing exceptional. Overall, we simply stayed the night, and didn't use any of the other facilities, but we appreciated the "suite" layout and the AAA discount, and recommend it if you can actually find it.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>We called ahead from the road to reserve this place once we knew we'd be stopping in Fort Worth for the night, and were pleased that they had a AAA rate (saving us 10%) and were "close" to I-30. It turns out, with the confusing layout of Texas interstate access roads, that it took us over 15 minutes to actually find our way to the entrance to the hotel parking lot once we'd seen the building. Quite a maze of access roads there. The hotel layout is the usual - interior corridors, elevators to the upper floors, breakfast area off the lobby. The room was mostly typical, too - two double beds, TV, private bathroom, etc. but the "suite" part came from a little extra room with sofa and table at the far end (by the window). This  turned out to be extremely well suited for the repacking we needed to do, and we liked it a lot. The breakfast was also typical - cereals, bagels, juice, coffee, etc., enough to get us going but nothing exceptional. Overall, we simply stayed the night, and didn't use any of the other facilities, but we appreciated the "suite" layout and the AAA discount, and recommend it if you can actually find it.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1515540-r59020741-Comfort_Suites_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>59020741</t>
+  </si>
+  <si>
+    <t>03/19/2010</t>
+  </si>
+  <si>
+    <t>24 hour pool, easy access to highway</t>
+  </si>
+  <si>
+    <t>Solid comfort suites, the AC in our room on the first floor was cold enough to allow you to hang meat in the room.  Bed was comfortable, foldout bed was in great shape, but had to stand the  coffee table up to make room.  Bathroom is very small, but the sink is on the outside.  Had a new refrigerator and microwave.  Very close to a couple of convenience stores and 5 minutes from malls and several other stores.Nicest thing for my son was the 24 hour pool and hot tub, even after a long day out, he could still come back and swim.  Good internet access and had a Texas-shaped-waffle maker for breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>Solid comfort suites, the AC in our room on the first floor was cold enough to allow you to hang meat in the room.  Bed was comfortable, foldout bed was in great shape, but had to stand the  coffee table up to make room.  Bathroom is very small, but the sink is on the outside.  Had a new refrigerator and microwave.  Very close to a couple of convenience stores and 5 minutes from malls and several other stores.Nicest thing for my son was the 24 hour pool and hot tub, even after a long day out, he could still come back and swim.  Good internet access and had a Texas-shaped-waffle maker for breakfast.More</t>
   </si>
 </sst>
 </file>
@@ -2671,148 +2458,140 @@
       <c r="A2" t="n">
         <v>60250</v>
       </c>
-      <c r="B2" t="n">
-        <v>125333</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>60250</v>
       </c>
-      <c r="B3" t="n">
-        <v>125334</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>61</v>
       </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>60250</v>
       </c>
-      <c r="B4" t="n">
-        <v>75304</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
         <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
         <v>64</v>
@@ -2827,26 +2606,16 @@
         <v>67</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O4" t="s">
-        <v>69</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>3</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -2860,313 +2629,295 @@
       <c r="A5" t="n">
         <v>60250</v>
       </c>
-      <c r="B5" t="n">
-        <v>125335</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
         <v>70</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="K5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>76</v>
-      </c>
       <c r="O5" t="s">
-        <v>69</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>60250</v>
       </c>
-      <c r="B6" t="n">
-        <v>125336</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
         <v>77</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>78</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>79</v>
       </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>83</v>
-      </c>
       <c r="O6" t="s">
-        <v>84</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>4</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>4</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>60250</v>
       </c>
-      <c r="B7" t="n">
-        <v>125337</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
         <v>86</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>91</v>
-      </c>
-      <c r="O7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P7" t="s"/>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>60250</v>
       </c>
-      <c r="B8" t="n">
-        <v>5426</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>60250</v>
       </c>
-      <c r="B9" t="n">
-        <v>125338</v>
-      </c>
-      <c r="C9" t="s">
-        <v>99</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O9" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -3174,57 +2925,53 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>60250</v>
       </c>
-      <c r="B10" t="n">
-        <v>125339</v>
-      </c>
-      <c r="C10" t="s">
-        <v>105</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O10" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
@@ -3239,63 +2986,57 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>60250</v>
       </c>
-      <c r="B11" t="n">
-        <v>125340</v>
-      </c>
-      <c r="C11" t="s">
-        <v>112</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="O11" t="s">
-        <v>69</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
         <v>5</v>
@@ -3306,133 +3047,127 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>60250</v>
       </c>
-      <c r="B12" t="n">
-        <v>44373</v>
-      </c>
-      <c r="C12" t="s">
-        <v>119</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>60250</v>
       </c>
-      <c r="B13" t="n">
-        <v>125341</v>
-      </c>
-      <c r="C13" t="s">
-        <v>126</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O13" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
@@ -3445,44 +3180,44 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="K14" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O14" t="s">
-        <v>92</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
         <v>5</v>
@@ -3493,369 +3228,349 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>60250</v>
       </c>
-      <c r="B15" t="n">
-        <v>125342</v>
-      </c>
-      <c r="C15" t="s">
-        <v>139</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="J15" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="O15" t="s">
-        <v>111</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>60250</v>
       </c>
-      <c r="B16" t="n">
-        <v>125343</v>
-      </c>
-      <c r="C16" t="s">
-        <v>146</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="J16" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="K16" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="L16" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>60250</v>
       </c>
-      <c r="B17" t="n">
-        <v>125344</v>
-      </c>
-      <c r="C17" t="s">
-        <v>153</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="J17" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="K17" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="L17" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="O17" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>60250</v>
       </c>
-      <c r="B18" t="n">
-        <v>26246</v>
-      </c>
-      <c r="C18" t="s">
-        <v>160</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="J18" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K18" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L18" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="O18" t="s">
-        <v>69</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>4</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>60250</v>
       </c>
-      <c r="B19" t="n">
-        <v>4922</v>
-      </c>
-      <c r="C19" t="s">
-        <v>167</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="J19" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="K19" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="O19" t="s">
-        <v>84</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>60250</v>
       </c>
-      <c r="B20" t="n">
-        <v>2411</v>
-      </c>
-      <c r="C20" t="s">
-        <v>174</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="J20" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="K20" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="L20" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="O20" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3869,128 +3584,116 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>60250</v>
       </c>
-      <c r="B21" t="n">
-        <v>125345</v>
-      </c>
-      <c r="C21" t="s">
-        <v>180</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="J21" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="K21" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="L21" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="O21" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>60250</v>
       </c>
-      <c r="B22" t="n">
-        <v>125346</v>
-      </c>
-      <c r="C22" t="s">
-        <v>188</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="J22" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="K22" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="L22" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="O22" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
         <v>5</v>
@@ -4001,64 +3704,60 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>60250</v>
       </c>
-      <c r="B23" t="n">
-        <v>125347</v>
-      </c>
-      <c r="C23" t="s">
-        <v>194</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="J23" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="K23" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="L23" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="O23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
       <c r="R23" t="s"/>
-      <c r="S23" t="n">
-        <v>4</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -4066,115 +3765,111 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>60250</v>
       </c>
-      <c r="B24" t="n">
-        <v>125348</v>
-      </c>
-      <c r="C24" t="s">
-        <v>200</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="J24" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="K24" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="L24" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="O24" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>60250</v>
       </c>
-      <c r="B25" t="n">
-        <v>65302</v>
-      </c>
-      <c r="C25" t="s">
-        <v>206</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="J25" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="K25" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="L25" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="O25" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4188,253 +3883,233 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>60250</v>
       </c>
-      <c r="B26" t="n">
-        <v>20312</v>
-      </c>
-      <c r="C26" t="s">
-        <v>213</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="J26" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="K26" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="L26" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="O26" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2</v>
-      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>1</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>60250</v>
       </c>
-      <c r="B27" t="n">
-        <v>116868</v>
-      </c>
-      <c r="C27" t="s">
-        <v>221</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="J27" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="K27" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="L27" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="O27" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>60250</v>
       </c>
-      <c r="B28" t="n">
-        <v>125349</v>
-      </c>
-      <c r="C28" t="s">
-        <v>228</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="J28" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="K28" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="L28" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="O28" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
+      <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>60250</v>
       </c>
-      <c r="B29" t="n">
-        <v>125350</v>
-      </c>
-      <c r="C29" t="s">
-        <v>235</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J29" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="K29" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="L29" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="O29" t="s">
-        <v>92</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
@@ -4446,192 +4121,180 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>60250</v>
       </c>
-      <c r="B30" t="n">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>243</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="J30" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="K30" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="L30" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="O30" t="s">
-        <v>69</v>
-      </c>
-      <c r="P30" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>60250</v>
       </c>
-      <c r="B31" t="n">
-        <v>125351</v>
-      </c>
-      <c r="C31" t="s">
-        <v>251</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="J31" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="K31" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="L31" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="O31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>60250</v>
       </c>
-      <c r="B32" t="n">
-        <v>125352</v>
-      </c>
-      <c r="C32" t="s">
-        <v>258</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="J32" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="K32" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="L32" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="O32" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -4639,115 +4302,111 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>60250</v>
       </c>
-      <c r="B33" t="n">
-        <v>125353</v>
-      </c>
-      <c r="C33" t="s">
-        <v>264</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="J33" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="K33" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="L33" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="O33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>60250</v>
       </c>
-      <c r="B34" t="n">
-        <v>125354</v>
-      </c>
-      <c r="C34" t="s">
-        <v>271</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="J34" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="K34" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="L34" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="O34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4761,54 +4420,50 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>60250</v>
       </c>
-      <c r="B35" t="n">
-        <v>2171</v>
-      </c>
-      <c r="C35" t="s">
-        <v>277</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="J35" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="K35" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="L35" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="O35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4822,127 +4477,113 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>60250</v>
       </c>
-      <c r="B36" t="n">
-        <v>3771</v>
-      </c>
-      <c r="C36" t="s">
-        <v>284</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="J36" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="K36" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="L36" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="O36" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>60250</v>
       </c>
-      <c r="B37" t="n">
-        <v>733</v>
-      </c>
-      <c r="C37" t="s">
-        <v>290</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="J37" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="K37" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="L37" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="O37" t="s">
-        <v>84</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="s"/>
-      <c r="R37" t="n">
-        <v>4</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
@@ -4954,189 +4595,177 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>60250</v>
       </c>
-      <c r="B38" t="n">
-        <v>162</v>
-      </c>
-      <c r="C38" t="s">
-        <v>297</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="J38" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="K38" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="L38" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="O38" t="s">
-        <v>92</v>
-      </c>
-      <c r="P38" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
       <c r="Q38" t="s"/>
-      <c r="R38" t="s"/>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>60250</v>
       </c>
-      <c r="B39" t="n">
-        <v>125355</v>
-      </c>
-      <c r="C39" t="s">
-        <v>304</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="J39" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="K39" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="L39" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="O39" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
       <c r="R39" t="s"/>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>60250</v>
       </c>
-      <c r="B40" t="n">
-        <v>80944</v>
-      </c>
-      <c r="C40" t="s">
-        <v>311</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="J40" t="s">
-        <v>314</v>
+        <v>277</v>
       </c>
       <c r="K40" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="L40" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="O40" t="s">
-        <v>54</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
       <c r="R40" t="s"/>
-      <c r="S40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
         <v>5</v>
@@ -5147,62 +4776,58 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>60250</v>
       </c>
-      <c r="B41" t="n">
-        <v>32780</v>
-      </c>
-      <c r="C41" t="s">
-        <v>318</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="J41" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="K41" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="L41" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="O41" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="P41" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q41" t="s"/>
-      <c r="R41" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
@@ -5214,188 +4839,176 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>60250</v>
       </c>
-      <c r="B42" t="n">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>243</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="J42" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="K42" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="L42" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="O42" t="s">
-        <v>69</v>
-      </c>
-      <c r="P42" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
       <c r="Q42" t="s"/>
-      <c r="R42" t="s"/>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>60250</v>
       </c>
-      <c r="B43" t="n">
-        <v>17644</v>
-      </c>
-      <c r="C43" t="s">
-        <v>333</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="J43" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="K43" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="L43" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
-      </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>299</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>5</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>60250</v>
       </c>
-      <c r="B44" t="n">
-        <v>125356</v>
-      </c>
-      <c r="C44" t="s">
-        <v>340</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="J44" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="K44" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="L44" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
-      <c r="N44" t="s">
-        <v>346</v>
-      </c>
-      <c r="O44" t="s">
-        <v>92</v>
-      </c>
-      <c r="P44" t="s"/>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
       <c r="Q44" t="n">
         <v>5</v>
       </c>
-      <c r="R44" t="s"/>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
       <c r="S44" t="n">
         <v>5</v>
       </c>
@@ -5409,61 +5022,59 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>60250</v>
       </c>
-      <c r="B45" t="n">
-        <v>17828</v>
-      </c>
-      <c r="C45" t="s">
-        <v>348</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>349</v>
+        <v>307</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>350</v>
+        <v>308</v>
       </c>
       <c r="J45" t="s">
-        <v>351</v>
+        <v>309</v>
       </c>
       <c r="K45" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="L45" t="s">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="O45" t="s">
-        <v>69</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
       <c r="R45" t="s"/>
-      <c r="S45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
         <v>5</v>
@@ -5474,63 +5085,57 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>60250</v>
       </c>
-      <c r="B46" t="n">
-        <v>97858</v>
-      </c>
-      <c r="C46" t="s">
-        <v>354</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>355</v>
+        <v>314</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>356</v>
+        <v>315</v>
       </c>
       <c r="J46" t="s">
-        <v>357</v>
+        <v>316</v>
       </c>
       <c r="K46" t="s">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="L46" t="s">
-        <v>359</v>
+        <v>318</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="O46" t="s">
-        <v>69</v>
-      </c>
-      <c r="P46" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
       <c r="Q46" t="s"/>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
         <v>5</v>
@@ -5541,63 +5146,55 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>359</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>60250</v>
       </c>
-      <c r="B47" t="n">
-        <v>125357</v>
-      </c>
-      <c r="C47" t="s">
-        <v>360</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>362</v>
+        <v>320</v>
       </c>
       <c r="J47" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="K47" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="L47" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="O47" t="s">
-        <v>92</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
       <c r="R47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -5612,54 +5209,50 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>366</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>60250</v>
       </c>
-      <c r="B48" t="n">
-        <v>8062</v>
-      </c>
-      <c r="C48" t="s">
-        <v>367</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>368</v>
+        <v>324</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>369</v>
+        <v>325</v>
       </c>
       <c r="J48" t="s">
-        <v>370</v>
+        <v>326</v>
       </c>
       <c r="K48" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
       <c r="L48" t="s">
-        <v>372</v>
+        <v>328</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>373</v>
+        <v>312</v>
       </c>
       <c r="O48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5667,8 +5260,12 @@
       <c r="Q48" t="n">
         <v>4</v>
       </c>
-      <c r="R48" t="s"/>
-      <c r="S48" t="s"/>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
         <v>5</v>
@@ -5679,133 +5276,127 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>374</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>60250</v>
       </c>
-      <c r="B49" t="n">
-        <v>84414</v>
-      </c>
-      <c r="C49" t="s">
-        <v>375</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>377</v>
+        <v>331</v>
       </c>
       <c r="J49" t="s">
-        <v>378</v>
+        <v>332</v>
       </c>
       <c r="K49" t="s">
-        <v>379</v>
+        <v>333</v>
       </c>
       <c r="L49" t="s">
-        <v>380</v>
+        <v>334</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>381</v>
+        <v>335</v>
       </c>
       <c r="O49" t="s">
-        <v>69</v>
-      </c>
-      <c r="P49" t="s"/>
-      <c r="Q49" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
       <c r="R49" t="s"/>
       <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>380</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>60250</v>
       </c>
-      <c r="B50" t="n">
-        <v>96051</v>
-      </c>
-      <c r="C50" t="s">
-        <v>382</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>383</v>
+        <v>337</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="J50" t="s">
-        <v>385</v>
+        <v>339</v>
       </c>
       <c r="K50" t="s">
-        <v>386</v>
+        <v>340</v>
       </c>
       <c r="L50" t="s">
-        <v>387</v>
+        <v>341</v>
       </c>
       <c r="M50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>388</v>
+        <v>342</v>
       </c>
       <c r="O50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P50" t="s"/>
-      <c r="Q50" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q50" t="s"/>
       <c r="R50" t="s"/>
       <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>4</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>387</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51">
@@ -5818,46 +5409,44 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>390</v>
+        <v>344</v>
       </c>
       <c r="J51" t="s">
-        <v>391</v>
+        <v>345</v>
       </c>
       <c r="K51" t="s">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="L51" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="O51" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="P51" t="s"/>
-      <c r="Q51" t="s"/>
-      <c r="R51" t="n">
-        <v>4</v>
-      </c>
-      <c r="S51" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
         <v>4</v>
@@ -5868,190 +5457,178 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>60250</v>
       </c>
-      <c r="B52" t="n">
-        <v>2171</v>
-      </c>
-      <c r="C52" t="s">
-        <v>277</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
       <c r="J52" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
       <c r="K52" t="s">
-        <v>396</v>
+        <v>352</v>
       </c>
       <c r="L52" t="s">
-        <v>397</v>
+        <v>353</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
-      <c r="N52" t="s"/>
-      <c r="O52" t="s"/>
+      <c r="N52" t="s">
+        <v>348</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
-      <c r="R52" t="s"/>
-      <c r="S52" t="s"/>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
       <c r="T52" t="s"/>
-      <c r="U52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>397</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>60250</v>
       </c>
-      <c r="B53" t="n">
-        <v>412</v>
-      </c>
-      <c r="C53" t="s">
-        <v>398</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="J53" t="s">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="K53" t="s">
-        <v>402</v>
+        <v>356</v>
       </c>
       <c r="L53" t="s">
-        <v>403</v>
+        <v>357</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
-      <c r="N53" t="s">
-        <v>404</v>
-      </c>
-      <c r="O53" t="s">
-        <v>69</v>
-      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
-      <c r="R53" t="n">
-        <v>3</v>
-      </c>
-      <c r="S53" t="n">
-        <v>5</v>
-      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
-      <c r="U53" t="n">
-        <v>5</v>
-      </c>
+      <c r="U53" t="s"/>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>403</v>
+        <v>357</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>60250</v>
       </c>
-      <c r="B54" t="n">
-        <v>125358</v>
-      </c>
-      <c r="C54" t="s">
-        <v>405</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="J54" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="K54" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="L54" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
       <c r="O54" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
       <c r="R54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -6059,112 +5636,114 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>60250</v>
       </c>
-      <c r="B55" t="n">
-        <v>125359</v>
-      </c>
-      <c r="C55" t="s">
-        <v>412</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>413</v>
+        <v>364</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
       <c r="J55" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
       <c r="K55" t="s">
-        <v>416</v>
+        <v>367</v>
       </c>
       <c r="L55" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
       <c r="O55" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
-      <c r="R55" t="s"/>
-      <c r="S55" t="s"/>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
       <c r="T55" t="s"/>
-      <c r="U55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>60250</v>
       </c>
-      <c r="B56" t="n">
-        <v>125360</v>
-      </c>
-      <c r="C56" t="s">
-        <v>419</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>421</v>
+        <v>371</v>
       </c>
       <c r="J56" t="s">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="K56" t="s">
-        <v>423</v>
+        <v>373</v>
       </c>
       <c r="L56" t="s">
-        <v>424</v>
+        <v>374</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
-      <c r="N56" t="s"/>
-      <c r="O56" t="s"/>
+      <c r="N56" t="s">
+        <v>375</v>
+      </c>
+      <c r="O56" t="s">
+        <v>93</v>
+      </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
       <c r="R56" t="s"/>
@@ -6177,45 +5756,41 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>424</v>
+        <v>374</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>60250</v>
       </c>
-      <c r="B57" t="n">
-        <v>125361</v>
-      </c>
-      <c r="C57" t="s">
-        <v>425</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>426</v>
+        <v>376</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="J57" t="s">
-        <v>428</v>
+        <v>378</v>
       </c>
       <c r="K57" t="s">
-        <v>429</v>
+        <v>379</v>
       </c>
       <c r="L57" t="s">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
@@ -6234,141 +5809,119 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>431</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>60250</v>
       </c>
-      <c r="B58" t="n">
-        <v>125362</v>
-      </c>
-      <c r="C58" t="s">
-        <v>432</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>433</v>
+        <v>381</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>434</v>
+        <v>382</v>
       </c>
       <c r="J58" t="s">
-        <v>435</v>
+        <v>383</v>
       </c>
       <c r="K58" t="s">
-        <v>436</v>
+        <v>384</v>
       </c>
       <c r="L58" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
-      </c>
-      <c r="N58" t="s">
-        <v>438</v>
-      </c>
-      <c r="O58" t="s">
-        <v>54</v>
-      </c>
-      <c r="P58" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>5</v>
-      </c>
-      <c r="R58" t="n">
-        <v>5</v>
-      </c>
-      <c r="S58" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
-      <c r="U58" t="n">
-        <v>5</v>
-      </c>
+      <c r="U58" t="s"/>
       <c r="V58" t="n">
         <v>0</v>
       </c>
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>439</v>
+        <v>386</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>60250</v>
       </c>
-      <c r="B59" t="n">
-        <v>125363</v>
-      </c>
-      <c r="C59" t="s">
-        <v>440</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>441</v>
+        <v>387</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>442</v>
+        <v>388</v>
       </c>
       <c r="J59" t="s">
-        <v>443</v>
+        <v>389</v>
       </c>
       <c r="K59" t="s">
-        <v>444</v>
+        <v>390</v>
       </c>
       <c r="L59" t="s">
-        <v>445</v>
+        <v>391</v>
       </c>
       <c r="M59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>446</v>
+        <v>392</v>
       </c>
       <c r="O59" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="P59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -6376,70 +5929,66 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>447</v>
+        <v>393</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>60250</v>
       </c>
-      <c r="B60" t="n">
-        <v>2745</v>
-      </c>
-      <c r="C60" t="s">
-        <v>448</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>449</v>
+        <v>394</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>450</v>
+        <v>395</v>
       </c>
       <c r="J60" t="s">
-        <v>451</v>
+        <v>396</v>
       </c>
       <c r="K60" t="s">
-        <v>452</v>
+        <v>397</v>
       </c>
       <c r="L60" t="s">
-        <v>453</v>
+        <v>398</v>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="O60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -6447,198 +5996,186 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>454</v>
+        <v>400</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>60250</v>
       </c>
-      <c r="B61" t="n">
-        <v>125364</v>
-      </c>
-      <c r="C61" t="s">
-        <v>455</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>456</v>
+        <v>401</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>457</v>
+        <v>402</v>
       </c>
       <c r="J61" t="s">
-        <v>458</v>
+        <v>403</v>
       </c>
       <c r="K61" t="s">
-        <v>459</v>
+        <v>404</v>
       </c>
       <c r="L61" t="s">
-        <v>460</v>
+        <v>405</v>
       </c>
       <c r="M61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="O61" t="s">
-        <v>92</v>
-      </c>
-      <c r="P61" t="s"/>
-      <c r="Q61" t="s"/>
-      <c r="R61" t="s"/>
-      <c r="S61" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2</v>
+      </c>
       <c r="T61" t="s"/>
-      <c r="U61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>460</v>
+        <v>406</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>60250</v>
       </c>
-      <c r="B62" t="n">
-        <v>25590</v>
-      </c>
-      <c r="C62" t="s">
-        <v>461</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>462</v>
+        <v>407</v>
       </c>
       <c r="G62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>463</v>
+        <v>408</v>
       </c>
       <c r="J62" t="s">
-        <v>464</v>
+        <v>409</v>
       </c>
       <c r="K62" t="s">
-        <v>465</v>
+        <v>410</v>
       </c>
       <c r="L62" t="s">
-        <v>466</v>
+        <v>411</v>
       </c>
       <c r="M62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>467</v>
+        <v>369</v>
       </c>
       <c r="O62" t="s">
-        <v>92</v>
-      </c>
-      <c r="P62" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>4</v>
-      </c>
-      <c r="R62" t="n">
-        <v>3</v>
-      </c>
-      <c r="S62" t="n">
-        <v>4</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
       <c r="T62" t="s"/>
-      <c r="U62" t="n">
-        <v>5</v>
-      </c>
+      <c r="U62" t="s"/>
       <c r="V62" t="n">
         <v>0</v>
       </c>
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>466</v>
+        <v>411</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>60250</v>
       </c>
-      <c r="B63" t="n">
-        <v>125365</v>
-      </c>
-      <c r="C63" t="s">
-        <v>468</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>469</v>
+        <v>412</v>
       </c>
       <c r="G63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>470</v>
+        <v>413</v>
       </c>
       <c r="J63" t="s">
-        <v>471</v>
+        <v>414</v>
       </c>
       <c r="K63" t="s">
-        <v>472</v>
+        <v>415</v>
       </c>
       <c r="L63" t="s">
-        <v>473</v>
+        <v>416</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>474</v>
+        <v>417</v>
       </c>
       <c r="O63" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
@@ -6650,53 +6187,53 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>473</v>
+        <v>416</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>60250</v>
       </c>
-      <c r="B64" t="n">
-        <v>125366</v>
-      </c>
-      <c r="C64" t="s">
-        <v>475</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>476</v>
+        <v>418</v>
       </c>
       <c r="G64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>477</v>
+        <v>419</v>
       </c>
       <c r="J64" t="s">
-        <v>478</v>
+        <v>420</v>
       </c>
       <c r="K64" t="s">
-        <v>479</v>
+        <v>421</v>
       </c>
       <c r="L64" t="s">
-        <v>480</v>
+        <v>422</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
-      <c r="N64" t="s"/>
-      <c r="O64" t="s"/>
+      <c r="N64" t="s">
+        <v>423</v>
+      </c>
+      <c r="O64" t="s">
+        <v>93</v>
+      </c>
       <c r="P64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q64" t="n">
         <v>5</v>
@@ -6717,55 +6254,47 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>480</v>
+        <v>422</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>60250</v>
       </c>
-      <c r="B65" t="n">
-        <v>125367</v>
-      </c>
-      <c r="C65" t="s">
-        <v>481</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>482</v>
+        <v>424</v>
       </c>
       <c r="G65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>483</v>
+        <v>425</v>
       </c>
       <c r="J65" t="s">
-        <v>484</v>
+        <v>426</v>
       </c>
       <c r="K65" t="s">
-        <v>485</v>
+        <v>427</v>
       </c>
       <c r="L65" t="s">
-        <v>486</v>
+        <v>428</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
-      <c r="N65" t="s">
-        <v>467</v>
-      </c>
-      <c r="O65" t="s">
-        <v>92</v>
-      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
       <c r="P65" t="n">
         <v>4</v>
       </c>
@@ -6773,14 +6302,14 @@
         <v>5</v>
       </c>
       <c r="R65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S65" t="n">
         <v>5</v>
       </c>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
@@ -6788,63 +6317,59 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>486</v>
+        <v>428</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>60250</v>
       </c>
-      <c r="B66" t="n">
-        <v>125368</v>
-      </c>
-      <c r="C66" t="s">
-        <v>487</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>488</v>
+        <v>429</v>
       </c>
       <c r="G66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>489</v>
+        <v>430</v>
       </c>
       <c r="J66" t="s">
-        <v>490</v>
+        <v>431</v>
       </c>
       <c r="K66" t="s">
-        <v>491</v>
+        <v>432</v>
       </c>
       <c r="L66" t="s">
-        <v>492</v>
+        <v>433</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>474</v>
+        <v>417</v>
       </c>
       <c r="O66" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="P66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q66" t="n">
         <v>5</v>
       </c>
       <c r="R66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S66" t="n">
         <v>5</v>
@@ -6859,70 +6384,66 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>493</v>
+        <v>433</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>60250</v>
       </c>
-      <c r="B67" t="n">
-        <v>125369</v>
-      </c>
-      <c r="C67" t="s">
-        <v>494</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>495</v>
+        <v>434</v>
       </c>
       <c r="G67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>496</v>
+        <v>435</v>
       </c>
       <c r="J67" t="s">
-        <v>497</v>
+        <v>436</v>
       </c>
       <c r="K67" t="s">
-        <v>498</v>
+        <v>437</v>
       </c>
       <c r="L67" t="s">
-        <v>499</v>
+        <v>438</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>500</v>
+        <v>423</v>
       </c>
       <c r="O67" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T67" t="s"/>
       <c r="U67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
@@ -6930,70 +6451,66 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>499</v>
+        <v>439</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>60250</v>
       </c>
-      <c r="B68" t="n">
-        <v>125370</v>
-      </c>
-      <c r="C68" t="s">
-        <v>501</v>
-      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="G68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>503</v>
+        <v>441</v>
       </c>
       <c r="J68" t="s">
-        <v>504</v>
+        <v>442</v>
       </c>
       <c r="K68" t="s">
-        <v>472</v>
+        <v>443</v>
       </c>
       <c r="L68" t="s">
-        <v>505</v>
+        <v>444</v>
       </c>
       <c r="M68" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>506</v>
+        <v>445</v>
       </c>
       <c r="O68" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="P68" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R68" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T68" t="s"/>
       <c r="U68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
@@ -7001,54 +6518,50 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>505</v>
+        <v>444</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>60250</v>
       </c>
-      <c r="B69" t="n">
-        <v>125371</v>
-      </c>
-      <c r="C69" t="s">
-        <v>507</v>
-      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>508</v>
+        <v>446</v>
       </c>
       <c r="G69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="J69" t="s">
-        <v>510</v>
+        <v>448</v>
       </c>
       <c r="K69" t="s">
-        <v>511</v>
+        <v>421</v>
       </c>
       <c r="L69" t="s">
-        <v>512</v>
+        <v>449</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>506</v>
+        <v>450</v>
       </c>
       <c r="O69" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7072,54 +6585,50 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>513</v>
+        <v>449</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>60250</v>
       </c>
-      <c r="B70" t="n">
-        <v>125372</v>
-      </c>
-      <c r="C70" t="s">
-        <v>514</v>
-      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>515</v>
+        <v>451</v>
       </c>
       <c r="G70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>516</v>
+        <v>452</v>
       </c>
       <c r="J70" t="s">
-        <v>517</v>
+        <v>453</v>
       </c>
       <c r="K70" t="s">
-        <v>518</v>
+        <v>454</v>
       </c>
       <c r="L70" t="s">
-        <v>519</v>
+        <v>455</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>373</v>
+        <v>450</v>
       </c>
       <c r="O70" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7143,70 +6652,66 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>519</v>
+        <v>456</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>60250</v>
       </c>
-      <c r="B71" t="n">
-        <v>44713</v>
-      </c>
-      <c r="C71" t="s">
-        <v>520</v>
-      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>521</v>
+        <v>457</v>
       </c>
       <c r="G71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>522</v>
+        <v>458</v>
       </c>
       <c r="J71" t="s">
-        <v>523</v>
+        <v>459</v>
       </c>
       <c r="K71" t="s">
-        <v>524</v>
+        <v>460</v>
       </c>
       <c r="L71" t="s">
-        <v>525</v>
+        <v>461</v>
       </c>
       <c r="M71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>526</v>
+        <v>335</v>
       </c>
       <c r="O71" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="P71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T71" t="s"/>
       <c r="U71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
@@ -7214,66 +6719,66 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>525</v>
+        <v>461</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>60250</v>
       </c>
-      <c r="B72" t="n">
-        <v>125373</v>
-      </c>
-      <c r="C72" t="s">
-        <v>527</v>
-      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>528</v>
+        <v>462</v>
       </c>
       <c r="G72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>529</v>
+        <v>463</v>
       </c>
       <c r="J72" t="s">
-        <v>530</v>
+        <v>464</v>
       </c>
       <c r="K72" t="s">
-        <v>531</v>
+        <v>465</v>
       </c>
       <c r="L72" t="s">
-        <v>532</v>
+        <v>466</v>
       </c>
       <c r="M72" t="n">
-        <v>5</v>
-      </c>
-      <c r="N72" t="s"/>
-      <c r="O72" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>467</v>
+      </c>
+      <c r="O72" t="s">
+        <v>93</v>
+      </c>
       <c r="P72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T72" t="s"/>
       <c r="U72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V72" t="n">
         <v>0</v>
@@ -7281,66 +6786,58 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>532</v>
+        <v>466</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>60250</v>
       </c>
-      <c r="B73" t="n">
-        <v>125374</v>
-      </c>
-      <c r="C73" t="s">
-        <v>533</v>
-      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>534</v>
+        <v>468</v>
       </c>
       <c r="G73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>535</v>
+        <v>469</v>
       </c>
       <c r="J73" t="s">
-        <v>536</v>
+        <v>470</v>
       </c>
       <c r="K73" t="s">
-        <v>537</v>
+        <v>471</v>
       </c>
       <c r="L73" t="s">
-        <v>538</v>
+        <v>472</v>
       </c>
       <c r="M73" t="n">
-        <v>4</v>
-      </c>
-      <c r="N73" t="s">
-        <v>526</v>
-      </c>
-      <c r="O73" t="s">
-        <v>54</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
       <c r="P73" t="n">
         <v>5</v>
       </c>
       <c r="Q73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T73" t="s"/>
       <c r="U73" t="n">
@@ -7352,66 +6849,62 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>538</v>
+        <v>472</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>60250</v>
       </c>
-      <c r="B74" t="n">
-        <v>25186</v>
-      </c>
-      <c r="C74" t="s">
-        <v>539</v>
-      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>540</v>
+        <v>473</v>
       </c>
       <c r="G74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>541</v>
+        <v>474</v>
       </c>
       <c r="J74" t="s">
-        <v>542</v>
+        <v>475</v>
       </c>
       <c r="K74" t="s">
-        <v>543</v>
+        <v>476</v>
       </c>
       <c r="L74" t="s">
-        <v>544</v>
+        <v>477</v>
       </c>
       <c r="M74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>545</v>
+        <v>467</v>
       </c>
       <c r="O74" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
       </c>
       <c r="Q74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R74" t="n">
         <v>4</v>
       </c>
       <c r="S74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T74" t="s"/>
       <c r="U74" t="n">
@@ -7423,66 +6916,66 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>544</v>
+        <v>477</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>60250</v>
       </c>
-      <c r="B75" t="n">
-        <v>125375</v>
-      </c>
-      <c r="C75" t="s">
-        <v>546</v>
-      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>547</v>
+        <v>478</v>
       </c>
       <c r="G75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>548</v>
+        <v>479</v>
       </c>
       <c r="J75" t="s">
-        <v>549</v>
+        <v>480</v>
       </c>
       <c r="K75" t="s">
-        <v>550</v>
+        <v>481</v>
       </c>
       <c r="L75" t="s">
-        <v>551</v>
+        <v>482</v>
       </c>
       <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="s"/>
-      <c r="O75" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>483</v>
+      </c>
+      <c r="O75" t="s">
+        <v>61</v>
+      </c>
       <c r="P75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T75" t="s"/>
       <c r="U75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V75" t="n">
         <v>0</v>
@@ -7490,70 +6983,62 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>551</v>
+        <v>482</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>60250</v>
       </c>
-      <c r="B76" t="n">
-        <v>28546</v>
-      </c>
-      <c r="C76" t="s">
-        <v>552</v>
-      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>553</v>
+        <v>484</v>
       </c>
       <c r="G76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>554</v>
+        <v>485</v>
       </c>
       <c r="J76" t="s">
-        <v>555</v>
+        <v>486</v>
       </c>
       <c r="K76" t="s">
-        <v>556</v>
+        <v>487</v>
       </c>
       <c r="L76" t="s">
-        <v>557</v>
+        <v>488</v>
       </c>
       <c r="M76" t="n">
-        <v>5</v>
-      </c>
-      <c r="N76" t="s">
-        <v>558</v>
-      </c>
-      <c r="O76" t="s">
-        <v>92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
       <c r="P76" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q76" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R76" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S76" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T76" t="s"/>
       <c r="U76" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V76" t="n">
         <v>0</v>
@@ -7561,54 +7046,50 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>557</v>
+        <v>488</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>60250</v>
       </c>
-      <c r="B77" t="n">
-        <v>125376</v>
-      </c>
-      <c r="C77" t="s">
-        <v>559</v>
-      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>560</v>
+        <v>489</v>
       </c>
       <c r="G77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>561</v>
+        <v>490</v>
       </c>
       <c r="J77" t="s">
-        <v>562</v>
+        <v>491</v>
       </c>
       <c r="K77" t="s">
-        <v>563</v>
+        <v>492</v>
       </c>
       <c r="L77" t="s">
-        <v>564</v>
+        <v>493</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>558</v>
+        <v>494</v>
       </c>
       <c r="O77" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7617,7 +7098,7 @@
         <v>5</v>
       </c>
       <c r="R77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S77" t="n">
         <v>5</v>
@@ -7632,57 +7113,53 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>564</v>
+        <v>493</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>60250</v>
       </c>
-      <c r="B78" t="n">
-        <v>10393</v>
-      </c>
-      <c r="C78" t="s">
-        <v>565</v>
-      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>566</v>
+        <v>495</v>
       </c>
       <c r="G78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>567</v>
+        <v>496</v>
       </c>
       <c r="J78" t="s">
-        <v>568</v>
+        <v>497</v>
       </c>
       <c r="K78" t="s">
-        <v>569</v>
+        <v>498</v>
       </c>
       <c r="L78" t="s">
-        <v>570</v>
+        <v>499</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>571</v>
+        <v>494</v>
       </c>
       <c r="O78" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q78" t="n">
         <v>5</v>
@@ -7691,7 +7168,7 @@
         <v>4</v>
       </c>
       <c r="S78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T78" t="s"/>
       <c r="U78" t="n">
@@ -7703,60 +7180,56 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>572</v>
+        <v>499</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>60250</v>
       </c>
-      <c r="B79" t="n">
-        <v>125377</v>
-      </c>
-      <c r="C79" t="s">
-        <v>573</v>
-      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>574</v>
+        <v>500</v>
       </c>
       <c r="G79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>575</v>
+        <v>501</v>
       </c>
       <c r="J79" t="s">
-        <v>576</v>
+        <v>502</v>
       </c>
       <c r="K79" t="s">
-        <v>577</v>
+        <v>503</v>
       </c>
       <c r="L79" t="s">
-        <v>578</v>
+        <v>504</v>
       </c>
       <c r="M79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>579</v>
+        <v>505</v>
       </c>
       <c r="O79" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
       </c>
       <c r="Q79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R79" t="n">
         <v>4</v>
@@ -7766,7 +7239,7 @@
       </c>
       <c r="T79" t="s"/>
       <c r="U79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V79" t="n">
         <v>0</v>
@@ -7774,54 +7247,50 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>578</v>
+        <v>506</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>60250</v>
       </c>
-      <c r="B80" t="n">
-        <v>125378</v>
-      </c>
-      <c r="C80" t="s">
-        <v>580</v>
-      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>581</v>
+        <v>507</v>
       </c>
       <c r="G80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>582</v>
+        <v>508</v>
       </c>
       <c r="J80" t="s">
-        <v>583</v>
+        <v>509</v>
       </c>
       <c r="K80" t="s">
-        <v>584</v>
+        <v>510</v>
       </c>
       <c r="L80" t="s">
-        <v>585</v>
+        <v>511</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>579</v>
+        <v>512</v>
       </c>
       <c r="O80" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -7833,11 +7302,11 @@
         <v>4</v>
       </c>
       <c r="S80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T80" t="s"/>
       <c r="U80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V80" t="n">
         <v>0</v>
@@ -7845,60 +7314,56 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>585</v>
+        <v>511</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>60250</v>
       </c>
-      <c r="B81" t="n">
-        <v>16299</v>
-      </c>
-      <c r="C81" t="s">
-        <v>586</v>
-      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>587</v>
+        <v>513</v>
       </c>
       <c r="G81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>588</v>
+        <v>514</v>
       </c>
       <c r="J81" t="s">
-        <v>589</v>
+        <v>515</v>
       </c>
       <c r="K81" t="s">
-        <v>590</v>
+        <v>516</v>
       </c>
       <c r="L81" t="s">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>579</v>
+        <v>512</v>
       </c>
       <c r="O81" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="P81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R81" t="n">
         <v>4</v>
@@ -7916,70 +7381,66 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>592</v>
+        <v>517</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>60250</v>
       </c>
-      <c r="B82" t="n">
-        <v>125379</v>
-      </c>
-      <c r="C82" t="s">
-        <v>593</v>
-      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
       <c r="G82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>595</v>
+        <v>519</v>
       </c>
       <c r="J82" t="s">
-        <v>596</v>
+        <v>520</v>
       </c>
       <c r="K82" t="s">
-        <v>597</v>
+        <v>521</v>
       </c>
       <c r="L82" t="s">
-        <v>598</v>
+        <v>522</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>599</v>
+        <v>512</v>
       </c>
       <c r="O82" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="P82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T82" t="s"/>
       <c r="U82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V82" t="n">
         <v>0</v>
@@ -7987,70 +7448,66 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>598</v>
+        <v>523</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>60250</v>
       </c>
-      <c r="B83" t="n">
-        <v>125380</v>
-      </c>
-      <c r="C83" t="s">
-        <v>600</v>
-      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>601</v>
+        <v>524</v>
       </c>
       <c r="G83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>602</v>
+        <v>525</v>
       </c>
       <c r="J83" t="s">
-        <v>603</v>
+        <v>526</v>
       </c>
       <c r="K83" t="s">
-        <v>604</v>
+        <v>527</v>
       </c>
       <c r="L83" t="s">
-        <v>605</v>
+        <v>528</v>
       </c>
       <c r="M83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>606</v>
+        <v>529</v>
       </c>
       <c r="O83" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="P83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T83" t="s"/>
       <c r="U83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V83" t="n">
         <v>0</v>
@@ -8058,7 +7515,7 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>607</v>
+        <v>528</v>
       </c>
     </row>
     <row r="84">
@@ -8071,34 +7528,38 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>608</v>
+        <v>530</v>
       </c>
       <c r="G84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>609</v>
+        <v>531</v>
       </c>
       <c r="J84" t="s">
-        <v>610</v>
+        <v>532</v>
       </c>
       <c r="K84" t="s">
-        <v>611</v>
+        <v>533</v>
       </c>
       <c r="L84" t="s">
-        <v>612</v>
+        <v>534</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
-      <c r="N84" t="s"/>
-      <c r="O84" t="s"/>
+      <c r="N84" t="s">
+        <v>535</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
       <c r="P84" t="n">
         <v>5</v>
       </c>
@@ -8106,7 +7567,7 @@
         <v>5</v>
       </c>
       <c r="R84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S84" t="n">
         <v>5</v>
@@ -8121,63 +7582,55 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>612</v>
+        <v>536</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>60250</v>
       </c>
-      <c r="B85" t="n">
-        <v>7</v>
-      </c>
-      <c r="C85" t="s">
-        <v>243</v>
-      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>613</v>
+        <v>537</v>
       </c>
       <c r="G85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>614</v>
+        <v>538</v>
       </c>
       <c r="J85" t="s">
-        <v>615</v>
+        <v>539</v>
       </c>
       <c r="K85" t="s">
-        <v>616</v>
+        <v>540</v>
       </c>
       <c r="L85" t="s">
-        <v>617</v>
+        <v>541</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
-      <c r="N85" t="s">
-        <v>618</v>
-      </c>
-      <c r="O85" t="s">
-        <v>84</v>
-      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
       <c r="P85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q85" t="n">
         <v>5</v>
       </c>
       <c r="R85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S85" t="n">
         <v>5</v>
@@ -8192,63 +7645,59 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>617</v>
+        <v>541</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>60250</v>
       </c>
-      <c r="B86" t="n">
-        <v>125381</v>
-      </c>
-      <c r="C86" t="s">
-        <v>619</v>
-      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>620</v>
+        <v>542</v>
       </c>
       <c r="G86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>621</v>
+        <v>543</v>
       </c>
       <c r="J86" t="s">
-        <v>622</v>
+        <v>544</v>
       </c>
       <c r="K86" t="s">
-        <v>623</v>
+        <v>545</v>
       </c>
       <c r="L86" t="s">
-        <v>624</v>
+        <v>546</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>625</v>
+        <v>547</v>
       </c>
       <c r="O86" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="P86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S86" t="n">
         <v>5</v>
@@ -8263,63 +7712,59 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>624</v>
+        <v>546</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>60250</v>
       </c>
-      <c r="B87" t="n">
-        <v>125382</v>
-      </c>
-      <c r="C87" t="s">
-        <v>626</v>
-      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>627</v>
+        <v>548</v>
       </c>
       <c r="G87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>628</v>
+        <v>549</v>
       </c>
       <c r="J87" t="s">
-        <v>629</v>
+        <v>550</v>
       </c>
       <c r="K87" t="s">
-        <v>630</v>
+        <v>551</v>
       </c>
       <c r="L87" t="s">
-        <v>631</v>
+        <v>552</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>625</v>
+        <v>553</v>
       </c>
       <c r="O87" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
       </c>
       <c r="Q87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S87" t="n">
         <v>5</v>
@@ -8334,54 +7779,50 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>631</v>
+        <v>552</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>60250</v>
       </c>
-      <c r="B88" t="n">
-        <v>125383</v>
-      </c>
-      <c r="C88" t="s">
-        <v>632</v>
-      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>633</v>
+        <v>554</v>
       </c>
       <c r="G88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>634</v>
+        <v>555</v>
       </c>
       <c r="J88" t="s">
-        <v>635</v>
+        <v>556</v>
       </c>
       <c r="K88" t="s">
-        <v>352</v>
+        <v>557</v>
       </c>
       <c r="L88" t="s">
-        <v>636</v>
+        <v>558</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>637</v>
+        <v>553</v>
       </c>
       <c r="O88" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8405,70 +7846,66 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>636</v>
+        <v>558</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>60250</v>
       </c>
-      <c r="B89" t="n">
-        <v>125384</v>
-      </c>
-      <c r="C89" t="s">
-        <v>638</v>
-      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>639</v>
+        <v>559</v>
       </c>
       <c r="G89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>640</v>
+        <v>560</v>
       </c>
       <c r="J89" t="s">
-        <v>641</v>
+        <v>561</v>
       </c>
       <c r="K89" t="s">
-        <v>642</v>
+        <v>317</v>
       </c>
       <c r="L89" t="s">
-        <v>643</v>
+        <v>562</v>
       </c>
       <c r="M89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>644</v>
+        <v>563</v>
       </c>
       <c r="O89" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="P89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T89" t="s"/>
       <c r="U89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V89" t="n">
         <v>0</v>
@@ -8476,70 +7913,66 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>643</v>
+        <v>562</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>60250</v>
       </c>
-      <c r="B90" t="n">
-        <v>125385</v>
-      </c>
-      <c r="C90" t="s">
-        <v>645</v>
-      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>646</v>
+        <v>564</v>
       </c>
       <c r="G90" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I90" t="s">
-        <v>647</v>
+        <v>565</v>
       </c>
       <c r="J90" t="s">
-        <v>648</v>
+        <v>566</v>
       </c>
       <c r="K90" t="s">
-        <v>649</v>
+        <v>567</v>
       </c>
       <c r="L90" t="s">
-        <v>650</v>
+        <v>568</v>
       </c>
       <c r="M90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>651</v>
+        <v>569</v>
       </c>
       <c r="O90" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S90" t="n">
         <v>4</v>
       </c>
       <c r="T90" t="s"/>
       <c r="U90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V90" t="n">
         <v>0</v>
@@ -8547,62 +7980,62 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>650</v>
+        <v>568</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>60250</v>
       </c>
-      <c r="B91" t="n">
-        <v>125386</v>
-      </c>
-      <c r="C91" t="s">
-        <v>652</v>
-      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>653</v>
+        <v>570</v>
       </c>
       <c r="G91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>654</v>
+        <v>571</v>
       </c>
       <c r="J91" t="s">
-        <v>655</v>
+        <v>572</v>
       </c>
       <c r="K91" t="s">
-        <v>656</v>
+        <v>573</v>
       </c>
       <c r="L91" t="s">
-        <v>657</v>
+        <v>574</v>
       </c>
       <c r="M91" t="n">
-        <v>5</v>
-      </c>
-      <c r="N91" t="s"/>
-      <c r="O91" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>575</v>
+      </c>
+      <c r="O91" t="s">
+        <v>61</v>
+      </c>
       <c r="P91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T91" t="s"/>
       <c r="U91" t="n">
@@ -8614,70 +8047,62 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>657</v>
+        <v>574</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>60250</v>
       </c>
-      <c r="B92" t="n">
-        <v>35990</v>
-      </c>
-      <c r="C92" t="s">
-        <v>658</v>
-      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>659</v>
+        <v>576</v>
       </c>
       <c r="G92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>660</v>
+        <v>577</v>
       </c>
       <c r="J92" t="s">
-        <v>661</v>
+        <v>578</v>
       </c>
       <c r="K92" t="s">
-        <v>662</v>
+        <v>579</v>
       </c>
       <c r="L92" t="s">
-        <v>663</v>
+        <v>580</v>
       </c>
       <c r="M92" t="n">
-        <v>4</v>
-      </c>
-      <c r="N92" t="s">
-        <v>599</v>
-      </c>
-      <c r="O92" t="s">
-        <v>69</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
       <c r="P92" t="n">
         <v>5</v>
       </c>
       <c r="Q92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S92" t="n">
         <v>5</v>
       </c>
       <c r="T92" t="s"/>
       <c r="U92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V92" t="n">
         <v>0</v>
@@ -8685,186 +8110,174 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>664</v>
+        <v>580</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>60250</v>
       </c>
-      <c r="B93" t="n">
-        <v>125387</v>
-      </c>
-      <c r="C93" t="s">
-        <v>665</v>
-      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>666</v>
+        <v>581</v>
       </c>
       <c r="G93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>667</v>
+        <v>582</v>
       </c>
       <c r="J93" t="s">
-        <v>668</v>
+        <v>583</v>
       </c>
       <c r="K93" t="s">
-        <v>669</v>
+        <v>584</v>
       </c>
       <c r="L93" t="s">
-        <v>670</v>
+        <v>585</v>
       </c>
       <c r="M93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>671</v>
+        <v>529</v>
       </c>
       <c r="O93" t="s">
-        <v>54</v>
-      </c>
-      <c r="P93" t="s"/>
-      <c r="Q93" t="s"/>
-      <c r="R93" t="s"/>
-      <c r="S93" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
       <c r="T93" t="s"/>
-      <c r="U93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
       <c r="V93" t="n">
         <v>0</v>
       </c>
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>672</v>
+        <v>586</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>60250</v>
       </c>
-      <c r="B94" t="n">
-        <v>74574</v>
-      </c>
-      <c r="C94" t="s">
-        <v>673</v>
-      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>674</v>
+        <v>587</v>
       </c>
       <c r="G94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>675</v>
+        <v>588</v>
       </c>
       <c r="J94" t="s">
-        <v>676</v>
+        <v>589</v>
       </c>
       <c r="K94" t="s">
-        <v>677</v>
+        <v>590</v>
       </c>
       <c r="L94" t="s">
-        <v>678</v>
+        <v>591</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>679</v>
+        <v>592</v>
       </c>
       <c r="O94" t="s">
-        <v>92</v>
-      </c>
-      <c r="P94" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>5</v>
-      </c>
-      <c r="R94" t="n">
-        <v>4</v>
-      </c>
-      <c r="S94" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
       <c r="T94" t="s"/>
-      <c r="U94" t="n">
-        <v>5</v>
-      </c>
+      <c r="U94" t="s"/>
       <c r="V94" t="n">
         <v>0</v>
       </c>
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>678</v>
+        <v>593</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>60250</v>
       </c>
-      <c r="B95" t="n">
-        <v>8437</v>
-      </c>
-      <c r="C95" t="s">
-        <v>680</v>
-      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>681</v>
+        <v>594</v>
       </c>
       <c r="G95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>682</v>
+        <v>595</v>
       </c>
       <c r="J95" t="s">
-        <v>683</v>
+        <v>596</v>
       </c>
       <c r="K95" t="s">
-        <v>684</v>
+        <v>597</v>
       </c>
       <c r="L95" t="s">
-        <v>685</v>
+        <v>598</v>
       </c>
       <c r="M95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>686</v>
+        <v>599</v>
       </c>
       <c r="O95" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -8873,14 +8286,14 @@
         <v>5</v>
       </c>
       <c r="R95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S95" t="n">
         <v>5</v>
       </c>
       <c r="T95" t="s"/>
       <c r="U95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V95" t="n">
         <v>0</v>
@@ -8888,51 +8301,51 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>685</v>
+        <v>598</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>60250</v>
       </c>
-      <c r="B96" t="n">
-        <v>43832</v>
-      </c>
-      <c r="C96" t="s">
-        <v>687</v>
-      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>688</v>
+        <v>600</v>
       </c>
       <c r="G96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>689</v>
+        <v>601</v>
       </c>
       <c r="J96" t="s">
-        <v>690</v>
+        <v>602</v>
       </c>
       <c r="K96" t="s">
-        <v>691</v>
+        <v>603</v>
       </c>
       <c r="L96" t="s">
-        <v>692</v>
+        <v>604</v>
       </c>
       <c r="M96" t="n">
-        <v>5</v>
-      </c>
-      <c r="N96" t="s"/>
-      <c r="O96" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>605</v>
+      </c>
+      <c r="O96" t="s">
+        <v>93</v>
+      </c>
       <c r="P96" t="n">
         <v>5</v>
       </c>
@@ -8940,14 +8353,14 @@
         <v>5</v>
       </c>
       <c r="R96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S96" t="n">
         <v>5</v>
       </c>
       <c r="T96" t="s"/>
       <c r="U96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V96" t="n">
         <v>0</v>
@@ -8955,141 +8368,261 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>692</v>
+        <v>604</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>60250</v>
       </c>
-      <c r="B97" t="n">
-        <v>68553</v>
-      </c>
-      <c r="C97" t="s">
-        <v>693</v>
-      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>694</v>
+        <v>606</v>
       </c>
       <c r="G97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I97" t="s">
-        <v>695</v>
+        <v>607</v>
       </c>
       <c r="J97" t="s">
-        <v>696</v>
-      </c>
-      <c r="K97" t="s"/>
-      <c r="L97" t="s"/>
-      <c r="M97" t="s"/>
+        <v>608</v>
+      </c>
+      <c r="K97" t="s">
+        <v>609</v>
+      </c>
+      <c r="L97" t="s">
+        <v>610</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
       <c r="N97" t="s"/>
       <c r="O97" t="s"/>
-      <c r="P97" t="s"/>
-      <c r="Q97" t="s"/>
-      <c r="R97" t="s"/>
-      <c r="S97" t="s"/>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
       <c r="T97" t="s"/>
-      <c r="U97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
       <c r="V97" t="n">
         <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>60250</v>
       </c>
-      <c r="B98" t="n">
-        <v>6657</v>
-      </c>
-      <c r="C98" t="s">
-        <v>697</v>
-      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>698</v>
+        <v>611</v>
       </c>
       <c r="G98" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I98" t="s">
-        <v>699</v>
-      </c>
-      <c r="J98" t="s"/>
-      <c r="K98" t="s"/>
-      <c r="L98" t="s"/>
-      <c r="M98" t="s"/>
-      <c r="N98" t="s"/>
-      <c r="O98" t="s"/>
-      <c r="P98" t="s"/>
-      <c r="Q98" t="s"/>
-      <c r="R98" t="s"/>
-      <c r="S98" t="s"/>
+        <v>612</v>
+      </c>
+      <c r="J98" t="s">
+        <v>613</v>
+      </c>
+      <c r="K98" t="s">
+        <v>614</v>
+      </c>
+      <c r="L98" t="s">
+        <v>615</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>616</v>
+      </c>
+      <c r="O98" t="s">
+        <v>93</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
       <c r="T98" t="s"/>
-      <c r="U98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
       <c r="V98" t="n">
         <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>60250</v>
       </c>
-      <c r="B99" t="n">
-        <v>125388</v>
-      </c>
-      <c r="C99" t="s">
-        <v>700</v>
-      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>701</v>
+        <v>618</v>
       </c>
       <c r="G99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I99" t="s">
-        <v>702</v>
-      </c>
-      <c r="J99" t="s"/>
-      <c r="K99" t="s"/>
-      <c r="L99" t="s"/>
-      <c r="M99" t="s"/>
-      <c r="N99" t="s"/>
-      <c r="O99" t="s"/>
-      <c r="P99" t="s"/>
-      <c r="Q99" t="s"/>
-      <c r="R99" t="s"/>
-      <c r="S99" t="s"/>
+        <v>619</v>
+      </c>
+      <c r="J99" t="s">
+        <v>620</v>
+      </c>
+      <c r="K99" t="s">
+        <v>621</v>
+      </c>
+      <c r="L99" t="s">
+        <v>622</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N99" t="s">
+        <v>623</v>
+      </c>
+      <c r="O99" t="s">
+        <v>93</v>
+      </c>
+      <c r="P99" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
       <c r="T99" t="s"/>
-      <c r="U99" t="s"/>
+      <c r="U99" t="n">
+        <v>2</v>
+      </c>
       <c r="V99" t="n">
         <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>60250</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>625</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>626</v>
+      </c>
+      <c r="J100" t="s">
+        <v>627</v>
+      </c>
+      <c r="K100" t="s">
+        <v>628</v>
+      </c>
+      <c r="L100" t="s">
+        <v>629</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>630</v>
+      </c>
+      <c r="O100" t="s">
+        <v>93</v>
+      </c>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="s"/>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>631</v>
       </c>
     </row>
   </sheetData>
